--- a/dd.xlsx
+++ b/dd.xlsx
@@ -453,28 +453,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>44504.375</v>
+        <v>44511.375</v>
       </c>
       <c r="B2">
-        <v>2450</v>
+        <v>5689000</v>
       </c>
       <c r="C2">
-        <v>2495</v>
+        <v>5790000</v>
       </c>
       <c r="D2">
-        <v>2365</v>
+        <v>5601000</v>
       </c>
       <c r="E2">
-        <v>2390</v>
+        <v>5749000</v>
       </c>
       <c r="F2">
-        <v>27505250.97797336</v>
+        <v>31934.50541021</v>
       </c>
       <c r="G2">
-        <v>66535612305.93982</v>
+        <v>182119911755.1303</v>
       </c>
       <c r="H2">
-        <v>65</v>
+        <v>132300</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -488,31 +488,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>44505.375</v>
+        <v>44512.375</v>
       </c>
       <c r="B3">
-        <v>2390</v>
+        <v>5746000</v>
       </c>
       <c r="C3">
-        <v>2430</v>
+        <v>5811000</v>
       </c>
       <c r="D3">
-        <v>2365</v>
+        <v>5551000</v>
       </c>
       <c r="E3">
-        <v>2415</v>
+        <v>5684000</v>
       </c>
       <c r="F3">
-        <v>18284735.58212905</v>
+        <v>40976.82100558</v>
       </c>
       <c r="G3">
-        <v>43912407491.41254</v>
+        <v>232474640330.1427</v>
       </c>
       <c r="H3">
-        <v>32.5</v>
+        <v>182000</v>
       </c>
       <c r="I3">
-        <v>2455</v>
+        <v>5878300</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -526,306 +526,306 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>44506.375</v>
+        <v>44513.375</v>
       </c>
       <c r="B4">
-        <v>2410</v>
+        <v>5685000</v>
       </c>
       <c r="C4">
-        <v>2465</v>
+        <v>5732000</v>
       </c>
       <c r="D4">
-        <v>2395</v>
+        <v>5582000</v>
       </c>
       <c r="E4">
-        <v>2430</v>
+        <v>5622000</v>
       </c>
       <c r="F4">
-        <v>14378608.03441811</v>
+        <v>24371.54869301</v>
       </c>
       <c r="G4">
-        <v>34844823067.41674</v>
+        <v>137596291422.0687</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>105000</v>
       </c>
       <c r="I4">
-        <v>2442.5</v>
+        <v>5867000</v>
       </c>
       <c r="J4">
-        <v>0.9898822927328557</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.9898822927328557</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.011770726714434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>44507.375</v>
+        <v>44514.375</v>
       </c>
       <c r="B5">
-        <v>2425</v>
+        <v>5622000</v>
       </c>
       <c r="C5">
-        <v>2470</v>
+        <v>5681000</v>
       </c>
       <c r="D5">
-        <v>2405</v>
+        <v>5504000</v>
       </c>
       <c r="E5">
-        <v>2445</v>
+        <v>5609000</v>
       </c>
       <c r="F5">
-        <v>12779767.99544817</v>
+        <v>26096.29283698</v>
       </c>
       <c r="G5">
-        <v>31087258789.99155</v>
+        <v>146072710246.8613</v>
       </c>
       <c r="H5">
-        <v>32.5</v>
+        <v>123900</v>
       </c>
       <c r="I5">
-        <v>2460</v>
+        <v>5727000</v>
       </c>
       <c r="J5">
-        <v>0.9889024390243902</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.9788970136305764</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2.110298636942365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>44508.375</v>
+        <v>44515.375</v>
       </c>
       <c r="B6">
-        <v>2445</v>
+        <v>5609000</v>
       </c>
       <c r="C6">
-        <v>2585</v>
+        <v>5748000</v>
       </c>
       <c r="D6">
-        <v>2435</v>
+        <v>5540000</v>
       </c>
       <c r="E6">
-        <v>2560</v>
+        <v>5563000</v>
       </c>
       <c r="F6">
-        <v>43574297.84398073</v>
+        <v>39668.68979512</v>
       </c>
       <c r="G6">
-        <v>108668876250.8864</v>
+        <v>224279067150.7272</v>
       </c>
       <c r="H6">
-        <v>75</v>
+        <v>145600</v>
       </c>
       <c r="I6">
-        <v>2477.5</v>
+        <v>5732900</v>
       </c>
       <c r="J6">
-        <v>1.028299697275479</v>
+        <v>0.9653640391424934</v>
       </c>
       <c r="K6">
-        <v>1.006599502780193</v>
+        <v>0.9653640391424934</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.463596085750664</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>44509.375</v>
+        <v>44516.375</v>
       </c>
       <c r="B7">
-        <v>2560</v>
+        <v>5563000</v>
       </c>
       <c r="C7">
-        <v>2840</v>
+        <v>5568000</v>
       </c>
       <c r="D7">
-        <v>2545</v>
+        <v>5133000</v>
       </c>
       <c r="E7">
-        <v>2735</v>
+        <v>5179000</v>
       </c>
       <c r="F7">
-        <v>120750850.4999421</v>
+        <v>99784.15517403001</v>
       </c>
       <c r="G7">
-        <v>328232447485.2991</v>
+        <v>529216931358.1021</v>
       </c>
       <c r="H7">
-        <v>147.5</v>
+        <v>304500</v>
       </c>
       <c r="I7">
-        <v>2635</v>
+        <v>5708600</v>
       </c>
       <c r="J7">
-        <v>1.032950664136622</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.039767624916394</v>
+        <v>0.9653640391424934</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3.463596085750664</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>44510.375</v>
+        <v>44517.375</v>
       </c>
       <c r="B8">
-        <v>2735</v>
+        <v>5181000</v>
       </c>
       <c r="C8">
-        <v>2815</v>
+        <v>5273000</v>
       </c>
       <c r="D8">
-        <v>2460</v>
+        <v>5000000</v>
       </c>
       <c r="E8">
-        <v>2580</v>
+        <v>5253000</v>
       </c>
       <c r="F8">
-        <v>82474819.02563246</v>
+        <v>79363.56576411</v>
       </c>
       <c r="G8">
-        <v>218781872259.9423</v>
+        <v>407318422621.3735</v>
       </c>
       <c r="H8">
-        <v>177.5</v>
+        <v>191100</v>
       </c>
       <c r="I8">
-        <v>2882.5</v>
+        <v>5485500</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1.039767624916394</v>
+        <v>0.9653640391424934</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.463596085750664</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>44511.375</v>
+        <v>44518.375</v>
       </c>
       <c r="B9">
-        <v>2585</v>
+        <v>5253000</v>
       </c>
       <c r="C9">
-        <v>2615</v>
+        <v>5326000</v>
       </c>
       <c r="D9">
-        <v>2520</v>
+        <v>4903000</v>
       </c>
       <c r="E9">
-        <v>2535</v>
+        <v>4953000</v>
       </c>
       <c r="F9">
-        <v>30129656.55272041</v>
+        <v>83571.43991253999</v>
       </c>
       <c r="G9">
-        <v>77126194142.64293</v>
+        <v>429798828461.8202</v>
       </c>
       <c r="H9">
-        <v>47.5</v>
+        <v>296100</v>
       </c>
       <c r="I9">
-        <v>2762.5</v>
+        <v>5444100</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1.039767624916394</v>
+        <v>0.9653640391424934</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.463596085750664</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>44512.375</v>
+        <v>44519.375</v>
       </c>
       <c r="B10">
-        <v>2535</v>
+        <v>4953000</v>
       </c>
       <c r="C10">
-        <v>2545</v>
+        <v>5347000</v>
       </c>
       <c r="D10">
-        <v>2445</v>
+        <v>4921000</v>
       </c>
       <c r="E10">
-        <v>2495</v>
+        <v>5311000</v>
       </c>
       <c r="F10">
-        <v>34156258.66923015</v>
+        <v>62029.90456799</v>
       </c>
       <c r="G10">
-        <v>85137722456.3483</v>
+        <v>317537468782.7933</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>298200</v>
       </c>
       <c r="I10">
-        <v>2582.5</v>
+        <v>5249100</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>1.006792497761521</v>
       </c>
       <c r="K10">
-        <v>1.039767624916394</v>
+        <v>0.9719212722174216</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.807872778257836</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>44513.375</v>
+        <v>44520.375</v>
       </c>
       <c r="B11">
-        <v>2495</v>
+        <v>5311000</v>
       </c>
       <c r="C11">
-        <v>2525</v>
+        <v>5484000</v>
       </c>
       <c r="D11">
-        <v>2470</v>
+        <v>5230000</v>
       </c>
       <c r="E11">
-        <v>2505</v>
+        <v>5461000</v>
       </c>
       <c r="F11">
-        <v>6181071.65077149</v>
+        <v>36358.58627105</v>
       </c>
       <c r="G11">
-        <v>15412594962.30555</v>
+        <v>194111847960.0945</v>
       </c>
       <c r="H11">
-        <v>27.5</v>
+        <v>177800</v>
       </c>
       <c r="I11">
-        <v>2545</v>
+        <v>5609200</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1.039767624916394</v>
+        <v>0.9719212722174216</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.807872778257836</v>
       </c>
     </row>
   </sheetData>

--- a/dd.xlsx
+++ b/dd.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,28 +453,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>44511.375</v>
+        <v>44463.375</v>
       </c>
       <c r="B2">
-        <v>5689000</v>
+        <v>3817000</v>
       </c>
       <c r="C2">
-        <v>5790000</v>
+        <v>3823000</v>
       </c>
       <c r="D2">
-        <v>5601000</v>
+        <v>3426000</v>
       </c>
       <c r="E2">
-        <v>5749000</v>
+        <v>3568000</v>
       </c>
       <c r="F2">
-        <v>31934.50541021</v>
+        <v>156719.60148282</v>
       </c>
       <c r="G2">
-        <v>182119911755.1303</v>
+        <v>561468045194.0671</v>
       </c>
       <c r="H2">
-        <v>132300</v>
+        <v>198500</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -488,31 +488,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>44512.375</v>
+        <v>44464.375</v>
       </c>
       <c r="B3">
-        <v>5746000</v>
+        <v>3570000</v>
       </c>
       <c r="C3">
-        <v>5811000</v>
+        <v>3608000</v>
       </c>
       <c r="D3">
-        <v>5551000</v>
+        <v>3450000</v>
       </c>
       <c r="E3">
-        <v>5684000</v>
+        <v>3591000</v>
       </c>
       <c r="F3">
-        <v>40976.82100558</v>
+        <v>67632.28551726999</v>
       </c>
       <c r="G3">
-        <v>232474640330.1427</v>
+        <v>239843697370.0372</v>
       </c>
       <c r="H3">
-        <v>182000</v>
+        <v>79000</v>
       </c>
       <c r="I3">
-        <v>5878300</v>
+        <v>3768500</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -526,37 +526,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>44513.375</v>
+        <v>44465.375</v>
       </c>
       <c r="B4">
-        <v>5685000</v>
+        <v>3590000</v>
       </c>
       <c r="C4">
-        <v>5732000</v>
+        <v>3795000</v>
       </c>
       <c r="D4">
-        <v>5582000</v>
+        <v>3415000</v>
       </c>
       <c r="E4">
-        <v>5622000</v>
+        <v>3739000</v>
       </c>
       <c r="F4">
-        <v>24371.54869301</v>
+        <v>97857.06104253</v>
       </c>
       <c r="G4">
-        <v>137596291422.0687</v>
+        <v>351354919812.9976</v>
       </c>
       <c r="H4">
-        <v>105000</v>
+        <v>190000</v>
       </c>
       <c r="I4">
-        <v>5867000</v>
+        <v>3669000</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>1.018578768056691</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>1.018578768056691</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -564,37 +564,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>44514.375</v>
+        <v>44466.375</v>
       </c>
       <c r="B5">
-        <v>5622000</v>
+        <v>3739000</v>
       </c>
       <c r="C5">
-        <v>5681000</v>
+        <v>3836000</v>
       </c>
       <c r="D5">
-        <v>5504000</v>
+        <v>3598000</v>
       </c>
       <c r="E5">
-        <v>5609000</v>
+        <v>3599000</v>
       </c>
       <c r="F5">
-        <v>26096.29283698</v>
+        <v>70918.83518849</v>
       </c>
       <c r="G5">
-        <v>146072710246.8613</v>
+        <v>264914242972.3792</v>
       </c>
       <c r="H5">
-        <v>123900</v>
+        <v>119000</v>
       </c>
       <c r="I5">
-        <v>5727000</v>
+        <v>3929000</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>1.018578768056691</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -602,230 +602,2130 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>44515.375</v>
+        <v>44467.375</v>
       </c>
       <c r="B6">
-        <v>5609000</v>
+        <v>3599000</v>
       </c>
       <c r="C6">
-        <v>5748000</v>
+        <v>3631000</v>
       </c>
       <c r="D6">
-        <v>5540000</v>
+        <v>3428000</v>
       </c>
       <c r="E6">
-        <v>5563000</v>
+        <v>3445000</v>
       </c>
       <c r="F6">
-        <v>39668.68979512</v>
+        <v>81142.9338129</v>
       </c>
       <c r="G6">
-        <v>224279067150.7272</v>
+        <v>287466551336.2194</v>
       </c>
       <c r="H6">
-        <v>145600</v>
+        <v>101500</v>
       </c>
       <c r="I6">
-        <v>5732900</v>
+        <v>3718000</v>
       </c>
       <c r="J6">
-        <v>0.9653640391424934</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.9653640391424934</v>
+        <v>1.018578768056691</v>
       </c>
       <c r="L6">
-        <v>3.463596085750664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>44516.375</v>
+        <v>44468.375</v>
       </c>
       <c r="B7">
-        <v>5563000</v>
+        <v>3447000</v>
       </c>
       <c r="C7">
-        <v>5568000</v>
+        <v>3590000</v>
       </c>
       <c r="D7">
-        <v>5133000</v>
+        <v>3415000</v>
       </c>
       <c r="E7">
-        <v>5179000</v>
+        <v>3489000</v>
       </c>
       <c r="F7">
-        <v>99784.15517403001</v>
+        <v>71946.02446448999</v>
       </c>
       <c r="G7">
-        <v>529216931358.1021</v>
+        <v>252226869935.4079</v>
       </c>
       <c r="H7">
-        <v>304500</v>
+        <v>87500</v>
       </c>
       <c r="I7">
-        <v>5708600</v>
+        <v>3548500</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.9827323516979006</v>
       </c>
       <c r="K7">
-        <v>0.9653640391424934</v>
+        <v>1.000990308121903</v>
       </c>
       <c r="L7">
-        <v>3.463596085750664</v>
+        <v>1.726764830209941</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>44517.375</v>
+        <v>44469.375</v>
       </c>
       <c r="B8">
-        <v>5181000</v>
+        <v>3485000</v>
       </c>
       <c r="C8">
-        <v>5273000</v>
+        <v>3709000</v>
       </c>
       <c r="D8">
-        <v>5000000</v>
+        <v>3474000</v>
       </c>
       <c r="E8">
-        <v>5253000</v>
+        <v>3663000</v>
       </c>
       <c r="F8">
-        <v>79363.56576411</v>
+        <v>75964.18742052</v>
       </c>
       <c r="G8">
-        <v>407318422621.3735</v>
+        <v>276395058728.9658</v>
       </c>
       <c r="H8">
-        <v>191100</v>
+        <v>117500</v>
       </c>
       <c r="I8">
-        <v>5485500</v>
+        <v>3572500</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>1.024832400279916</v>
       </c>
       <c r="K8">
-        <v>0.9653640391424934</v>
+        <v>1.025847300129502</v>
       </c>
       <c r="L8">
-        <v>3.463596085750664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>44518.375</v>
+        <v>44470.375</v>
       </c>
       <c r="B9">
-        <v>5253000</v>
+        <v>3663000</v>
       </c>
       <c r="C9">
-        <v>5326000</v>
+        <v>4031000</v>
       </c>
       <c r="D9">
-        <v>4903000</v>
+        <v>3650000</v>
       </c>
       <c r="E9">
-        <v>4953000</v>
+        <v>4011000</v>
       </c>
       <c r="F9">
-        <v>83571.43991253999</v>
+        <v>113115.85590455</v>
       </c>
       <c r="G9">
-        <v>429798828461.8202</v>
+        <v>435815987441.9341</v>
       </c>
       <c r="H9">
-        <v>296100</v>
+        <v>190500</v>
       </c>
       <c r="I9">
-        <v>5444100</v>
+        <v>3780500</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>1.060470771062029</v>
       </c>
       <c r="K9">
-        <v>0.9653640391424934</v>
+        <v>1.087881077360234</v>
       </c>
       <c r="L9">
-        <v>3.463596085750664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>44519.375</v>
+        <v>44471.375</v>
       </c>
       <c r="B10">
-        <v>4953000</v>
+        <v>4012000</v>
       </c>
       <c r="C10">
-        <v>5347000</v>
+        <v>4210000</v>
       </c>
       <c r="D10">
-        <v>4921000</v>
+        <v>3961000</v>
       </c>
       <c r="E10">
-        <v>5311000</v>
+        <v>4134000</v>
       </c>
       <c r="F10">
-        <v>62029.90456799</v>
+        <v>76351.38408153001</v>
       </c>
       <c r="G10">
-        <v>317537468782.7933</v>
+        <v>310046644076.1509</v>
       </c>
       <c r="H10">
-        <v>298200</v>
+        <v>124500</v>
       </c>
       <c r="I10">
-        <v>5249100</v>
+        <v>4202500</v>
       </c>
       <c r="J10">
-        <v>1.006792497761521</v>
+        <v>0.9832001784651994</v>
       </c>
       <c r="K10">
-        <v>0.9719212722174216</v>
+        <v>1.069604869409495</v>
       </c>
       <c r="L10">
-        <v>2.807872778257836</v>
+        <v>1.679982153480065</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
+        <v>44472.375</v>
+      </c>
+      <c r="B11">
+        <v>4134000</v>
+      </c>
+      <c r="C11">
+        <v>4214000</v>
+      </c>
+      <c r="D11">
+        <v>4062000</v>
+      </c>
+      <c r="E11">
+        <v>4154000</v>
+      </c>
+      <c r="F11">
+        <v>54562.06081694</v>
+      </c>
+      <c r="G11">
+        <v>226284602771.6396</v>
+      </c>
+      <c r="H11">
+        <v>76000</v>
+      </c>
+      <c r="I11">
+        <v>4258500</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1.069604869409495</v>
+      </c>
+      <c r="L11">
+        <v>1.679982153480065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>44473.375</v>
+      </c>
+      <c r="B12">
+        <v>4154000</v>
+      </c>
+      <c r="C12">
+        <v>4168000</v>
+      </c>
+      <c r="D12">
+        <v>3998000</v>
+      </c>
+      <c r="E12">
+        <v>4131000</v>
+      </c>
+      <c r="F12">
+        <v>76789.78280382</v>
+      </c>
+      <c r="G12">
+        <v>313965525768.4938</v>
+      </c>
+      <c r="H12">
+        <v>85000</v>
+      </c>
+      <c r="I12">
+        <v>4230000</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1.069604869409495</v>
+      </c>
+      <c r="L12">
+        <v>1.679982153480065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>44474.375</v>
+      </c>
+      <c r="B13">
+        <v>4134000</v>
+      </c>
+      <c r="C13">
+        <v>4260000</v>
+      </c>
+      <c r="D13">
+        <v>4087000</v>
+      </c>
+      <c r="E13">
+        <v>4211000</v>
+      </c>
+      <c r="F13">
+        <v>57086.91311704</v>
+      </c>
+      <c r="G13">
+        <v>237037580196.1148</v>
+      </c>
+      <c r="H13">
+        <v>86500</v>
+      </c>
+      <c r="I13">
+        <v>4219000</v>
+      </c>
+      <c r="J13">
+        <v>0.9976038160701589</v>
+      </c>
+      <c r="K13">
+        <v>1.067041899410136</v>
+      </c>
+      <c r="L13">
+        <v>1.915575000225583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>44475.375</v>
+      </c>
+      <c r="B14">
+        <v>4214000</v>
+      </c>
+      <c r="C14">
+        <v>4386000</v>
+      </c>
+      <c r="D14">
+        <v>4058000</v>
+      </c>
+      <c r="E14">
+        <v>4328000</v>
+      </c>
+      <c r="F14">
+        <v>109169.63919188</v>
+      </c>
+      <c r="G14">
+        <v>463530984640.3398</v>
+      </c>
+      <c r="H14">
+        <v>164000</v>
+      </c>
+      <c r="I14">
+        <v>4300500</v>
+      </c>
+      <c r="J14">
+        <v>1.005894605278456</v>
+      </c>
+      <c r="K14">
+        <v>1.073331690222733</v>
+      </c>
+      <c r="L14">
+        <v>1.337406030887589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>44476.375</v>
+      </c>
+      <c r="B15">
+        <v>4328000</v>
+      </c>
+      <c r="C15">
+        <v>4421000</v>
+      </c>
+      <c r="D15">
+        <v>4222000</v>
+      </c>
+      <c r="E15">
+        <v>4361000</v>
+      </c>
+      <c r="F15">
+        <v>70607.88991296</v>
+      </c>
+      <c r="G15">
+        <v>306157507218.3364</v>
+      </c>
+      <c r="H15">
+        <v>99500</v>
+      </c>
+      <c r="I15">
+        <v>4492000</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1.073331690222733</v>
+      </c>
+      <c r="L15">
+        <v>1.337406030887589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>44477.375</v>
+      </c>
+      <c r="B16">
+        <v>4362000</v>
+      </c>
+      <c r="C16">
+        <v>4469000</v>
+      </c>
+      <c r="D16">
+        <v>4322000</v>
+      </c>
+      <c r="E16">
+        <v>4355000</v>
+      </c>
+      <c r="F16">
+        <v>56829.03515054</v>
+      </c>
+      <c r="G16">
+        <v>249703652413.8403</v>
+      </c>
+      <c r="H16">
+        <v>73500</v>
+      </c>
+      <c r="I16">
+        <v>4461500</v>
+      </c>
+      <c r="J16">
+        <v>0.9756291045612463</v>
+      </c>
+      <c r="K16">
+        <v>1.047173635829214</v>
+      </c>
+      <c r="L16">
+        <v>3.741901792225032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>44478.375</v>
+      </c>
+      <c r="B17">
+        <v>4353000</v>
+      </c>
+      <c r="C17">
+        <v>4441000</v>
+      </c>
+      <c r="D17">
+        <v>4333000</v>
+      </c>
+      <c r="E17">
+        <v>4370000</v>
+      </c>
+      <c r="F17">
+        <v>48110.57954428</v>
+      </c>
+      <c r="G17">
+        <v>211692940860.1382</v>
+      </c>
+      <c r="H17">
+        <v>54000</v>
+      </c>
+      <c r="I17">
+        <v>4426500</v>
+      </c>
+      <c r="J17">
+        <v>0.9867359652095335</v>
+      </c>
+      <c r="K17">
+        <v>1.033283888291916</v>
+      </c>
+      <c r="L17">
+        <v>5.01867255571709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>44479.375</v>
+      </c>
+      <c r="B18">
+        <v>4369000</v>
+      </c>
+      <c r="C18">
+        <v>4394000</v>
+      </c>
+      <c r="D18">
+        <v>4230000</v>
+      </c>
+      <c r="E18">
+        <v>4241000</v>
+      </c>
+      <c r="F18">
+        <v>48285.52893444</v>
+      </c>
+      <c r="G18">
+        <v>209124048893.8007</v>
+      </c>
+      <c r="H18">
+        <v>82000</v>
+      </c>
+      <c r="I18">
+        <v>4423000</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1.033283888291916</v>
+      </c>
+      <c r="L18">
+        <v>5.01867255571709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>44480.375</v>
+      </c>
+      <c r="B19">
+        <v>4242000</v>
+      </c>
+      <c r="C19">
+        <v>4439000</v>
+      </c>
+      <c r="D19">
+        <v>4200000</v>
+      </c>
+      <c r="E19">
+        <v>4375000</v>
+      </c>
+      <c r="F19">
+        <v>61370.87201744</v>
+      </c>
+      <c r="G19">
+        <v>267656682959.5279</v>
+      </c>
+      <c r="H19">
+        <v>119500</v>
+      </c>
+      <c r="I19">
+        <v>4324000</v>
+      </c>
+      <c r="J19">
+        <v>1.011294634597595</v>
+      </c>
+      <c r="K19">
+        <v>1.044954452245756</v>
+      </c>
+      <c r="L19">
+        <v>3.945893168639402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>44481.375</v>
+      </c>
+      <c r="B20">
+        <v>4374000</v>
+      </c>
+      <c r="C20">
+        <v>4378000</v>
+      </c>
+      <c r="D20">
+        <v>4232000</v>
+      </c>
+      <c r="E20">
+        <v>4311000</v>
+      </c>
+      <c r="F20">
+        <v>55160.97807905</v>
+      </c>
+      <c r="G20">
+        <v>237046950424.4879</v>
+      </c>
+      <c r="H20">
+        <v>73000</v>
+      </c>
+      <c r="I20">
+        <v>4493500</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1.044954452245756</v>
+      </c>
+      <c r="L20">
+        <v>3.945893168639402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>44482.375</v>
+      </c>
+      <c r="B21">
+        <v>4311000</v>
+      </c>
+      <c r="C21">
+        <v>4403000</v>
+      </c>
+      <c r="D21">
+        <v>4204000</v>
+      </c>
+      <c r="E21">
+        <v>4394000</v>
+      </c>
+      <c r="F21">
+        <v>51655.33194948</v>
+      </c>
+      <c r="G21">
+        <v>222157958940.4048</v>
+      </c>
+      <c r="H21">
+        <v>99500</v>
+      </c>
+      <c r="I21">
+        <v>4384000</v>
+      </c>
+      <c r="J21">
+        <v>1.00178102189781</v>
+      </c>
+      <c r="K21">
+        <v>1.04681553900742</v>
+      </c>
+      <c r="L21">
+        <v>3.774818700998148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>44483.375</v>
+      </c>
+      <c r="B22">
+        <v>4389000</v>
+      </c>
+      <c r="C22">
+        <v>4649000</v>
+      </c>
+      <c r="D22">
+        <v>4370000</v>
+      </c>
+      <c r="E22">
+        <v>4609000</v>
+      </c>
+      <c r="F22">
+        <v>79166.71112686</v>
+      </c>
+      <c r="G22">
+        <v>358067671907.0831</v>
+      </c>
+      <c r="H22">
+        <v>139500</v>
+      </c>
+      <c r="I22">
+        <v>4488500</v>
+      </c>
+      <c r="J22">
+        <v>1.026346385206639</v>
+      </c>
+      <c r="K22">
+        <v>1.074395344438405</v>
+      </c>
+      <c r="L22">
+        <v>1.239633007915938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>44484.375</v>
+      </c>
+      <c r="B23">
+        <v>4609000</v>
+      </c>
+      <c r="C23">
+        <v>4770000</v>
+      </c>
+      <c r="D23">
+        <v>4555000</v>
+      </c>
+      <c r="E23">
+        <v>4752000</v>
+      </c>
+      <c r="F23">
+        <v>115787.57113377</v>
+      </c>
+      <c r="G23">
+        <v>539609933228.682</v>
+      </c>
+      <c r="H23">
+        <v>107500</v>
+      </c>
+      <c r="I23">
+        <v>4748500</v>
+      </c>
+      <c r="J23">
+        <v>1.000237074865747</v>
+      </c>
+      <c r="K23">
+        <v>1.074650056570447</v>
+      </c>
+      <c r="L23">
+        <v>1.21621940717014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
+        <v>44485.375</v>
+      </c>
+      <c r="B24">
+        <v>4752000</v>
+      </c>
+      <c r="C24">
+        <v>4848000</v>
+      </c>
+      <c r="D24">
+        <v>4681000</v>
+      </c>
+      <c r="E24">
+        <v>4713000</v>
+      </c>
+      <c r="F24">
+        <v>64732.07463143</v>
+      </c>
+      <c r="G24">
+        <v>308397464751.6136</v>
+      </c>
+      <c r="H24">
+        <v>83500</v>
+      </c>
+      <c r="I24">
+        <v>4859500</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1.074650056570447</v>
+      </c>
+      <c r="L24">
+        <v>1.21621940717014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
+        <v>44486.375</v>
+      </c>
+      <c r="B25">
+        <v>4713000</v>
+      </c>
+      <c r="C25">
+        <v>4808000</v>
+      </c>
+      <c r="D25">
+        <v>4575000</v>
+      </c>
+      <c r="E25">
+        <v>4744000</v>
+      </c>
+      <c r="F25">
+        <v>44259.83586468</v>
+      </c>
+      <c r="G25">
+        <v>208715975553.7106</v>
+      </c>
+      <c r="H25">
+        <v>116500</v>
+      </c>
+      <c r="I25">
+        <v>4796500</v>
+      </c>
+      <c r="J25">
+        <v>0.988554518920046</v>
+      </c>
+      <c r="K25">
+        <v>1.062350169680399</v>
+      </c>
+      <c r="L25">
+        <v>2.346847298951704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
+        <v>44487.375</v>
+      </c>
+      <c r="B26">
+        <v>4741000</v>
+      </c>
+      <c r="C26">
+        <v>4796000</v>
+      </c>
+      <c r="D26">
+        <v>4550000</v>
+      </c>
+      <c r="E26">
+        <v>4631000</v>
+      </c>
+      <c r="F26">
+        <v>62399.95901938</v>
+      </c>
+      <c r="G26">
+        <v>291810115964.4838</v>
+      </c>
+      <c r="H26">
+        <v>123000</v>
+      </c>
+      <c r="I26">
+        <v>4857500</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1.062350169680399</v>
+      </c>
+      <c r="L26">
+        <v>2.346847298951704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
+        <v>44488.375</v>
+      </c>
+      <c r="B27">
+        <v>4631000</v>
+      </c>
+      <c r="C27">
+        <v>4764000</v>
+      </c>
+      <c r="D27">
+        <v>4612000</v>
+      </c>
+      <c r="E27">
+        <v>4743000</v>
+      </c>
+      <c r="F27">
+        <v>44383.16759226</v>
+      </c>
+      <c r="G27">
+        <v>207640659534.9724</v>
+      </c>
+      <c r="H27">
+        <v>76000</v>
+      </c>
+      <c r="I27">
+        <v>4754000</v>
+      </c>
+      <c r="J27">
+        <v>0.9971861590239799</v>
+      </c>
+      <c r="K27">
+        <v>1.05936088524207</v>
+      </c>
+      <c r="L27">
+        <v>2.621627741459458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>44489.375</v>
+      </c>
+      <c r="B28">
+        <v>4743000</v>
+      </c>
+      <c r="C28">
+        <v>5045000</v>
+      </c>
+      <c r="D28">
+        <v>4690000</v>
+      </c>
+      <c r="E28">
+        <v>5040000</v>
+      </c>
+      <c r="F28">
+        <v>89963.75000424001</v>
+      </c>
+      <c r="G28">
+        <v>438579355717.2174</v>
+      </c>
+      <c r="H28">
+        <v>177500</v>
+      </c>
+      <c r="I28">
+        <v>4819000</v>
+      </c>
+      <c r="J28">
+        <v>1.045360136957875</v>
+      </c>
+      <c r="K28">
+        <v>1.107413640084466</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>44490.375</v>
+      </c>
+      <c r="B29">
+        <v>5039000</v>
+      </c>
+      <c r="C29">
+        <v>5299000</v>
+      </c>
+      <c r="D29">
+        <v>4950000</v>
+      </c>
+      <c r="E29">
+        <v>4967000</v>
+      </c>
+      <c r="F29">
+        <v>132665.08258039</v>
+      </c>
+      <c r="G29">
+        <v>676797579861.6123</v>
+      </c>
+      <c r="H29">
+        <v>174500</v>
+      </c>
+      <c r="I29">
+        <v>5216500</v>
+      </c>
+      <c r="J29">
+        <v>0.9516709958784626</v>
+      </c>
+      <c r="K29">
+        <v>1.053893441708577</v>
+      </c>
+      <c r="L29">
+        <v>4.832900412153736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
+        <v>44491.375</v>
+      </c>
+      <c r="B30">
+        <v>4966000</v>
+      </c>
+      <c r="C30">
+        <v>5100000</v>
+      </c>
+      <c r="D30">
+        <v>4800000</v>
+      </c>
+      <c r="E30">
+        <v>4867000</v>
+      </c>
+      <c r="F30">
+        <v>72389.53679528</v>
+      </c>
+      <c r="G30">
+        <v>359555603946.8616</v>
+      </c>
+      <c r="H30">
+        <v>150000</v>
+      </c>
+      <c r="I30">
+        <v>5140500</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1.053893441708577</v>
+      </c>
+      <c r="L30">
+        <v>4.832900412153736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>44492.375</v>
+      </c>
+      <c r="B31">
+        <v>4867000</v>
+      </c>
+      <c r="C31">
+        <v>5097000</v>
+      </c>
+      <c r="D31">
+        <v>4821000</v>
+      </c>
+      <c r="E31">
+        <v>5080000</v>
+      </c>
+      <c r="F31">
+        <v>48233.9916998</v>
+      </c>
+      <c r="G31">
+        <v>238623560870.2636</v>
+      </c>
+      <c r="H31">
+        <v>138000</v>
+      </c>
+      <c r="I31">
+        <v>5017000</v>
+      </c>
+      <c r="J31">
+        <v>1.012057305162448</v>
+      </c>
+      <c r="K31">
+        <v>1.06660055654396</v>
+      </c>
+      <c r="L31">
+        <v>3.685441650998025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>44493.375</v>
+      </c>
+      <c r="B32">
+        <v>5085000</v>
+      </c>
+      <c r="C32">
+        <v>5120000</v>
+      </c>
+      <c r="D32">
+        <v>4900000</v>
+      </c>
+      <c r="E32">
+        <v>4999000</v>
+      </c>
+      <c r="F32">
+        <v>46799.7842703</v>
+      </c>
+      <c r="G32">
+        <v>234017892375.5342</v>
+      </c>
+      <c r="H32">
+        <v>110000</v>
+      </c>
+      <c r="I32">
+        <v>5223000</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1.06660055654396</v>
+      </c>
+      <c r="L32">
+        <v>3.685441650998025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
+        <v>44494.375</v>
+      </c>
+      <c r="B33">
+        <v>4999000</v>
+      </c>
+      <c r="C33">
+        <v>5117000</v>
+      </c>
+      <c r="D33">
+        <v>4976000</v>
+      </c>
+      <c r="E33">
+        <v>5105000</v>
+      </c>
+      <c r="F33">
+        <v>43456.67793782</v>
+      </c>
+      <c r="G33">
+        <v>219388214860.9637</v>
+      </c>
+      <c r="H33">
+        <v>70500</v>
+      </c>
+      <c r="I33">
+        <v>5109000</v>
+      </c>
+      <c r="J33">
+        <v>0.9987170679193581</v>
+      </c>
+      <c r="K33">
+        <v>1.065232180472739</v>
+      </c>
+      <c r="L33">
+        <v>3.809006687736807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
+        <v>44495.375</v>
+      </c>
+      <c r="B34">
+        <v>5105000</v>
+      </c>
+      <c r="C34">
+        <v>5149000</v>
+      </c>
+      <c r="D34">
+        <v>4990000</v>
+      </c>
+      <c r="E34">
+        <v>5018000</v>
+      </c>
+      <c r="F34">
+        <v>47113.38098229</v>
+      </c>
+      <c r="G34">
+        <v>238994829384.7341</v>
+      </c>
+      <c r="H34">
+        <v>79500</v>
+      </c>
+      <c r="I34">
+        <v>5175500</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1.065232180472739</v>
+      </c>
+      <c r="L34">
+        <v>3.809006687736807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
+        <v>44496.375</v>
+      </c>
+      <c r="B35">
+        <v>5019000</v>
+      </c>
+      <c r="C35">
+        <v>5185000</v>
+      </c>
+      <c r="D35">
+        <v>4802000</v>
+      </c>
+      <c r="E35">
+        <v>4820000</v>
+      </c>
+      <c r="F35">
+        <v>126385.48324463</v>
+      </c>
+      <c r="G35">
+        <v>631220160658.3412</v>
+      </c>
+      <c r="H35">
+        <v>191500</v>
+      </c>
+      <c r="I35">
+        <v>5098500</v>
+      </c>
+      <c r="J35">
+        <v>0.944876091007159</v>
+      </c>
+      <c r="K35">
+        <v>1.006512418700114</v>
+      </c>
+      <c r="L35">
+        <v>9.111430249012988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
+        <v>44497.375</v>
+      </c>
+      <c r="B36">
+        <v>4820000</v>
+      </c>
+      <c r="C36">
+        <v>5172000</v>
+      </c>
+      <c r="D36">
+        <v>4752000</v>
+      </c>
+      <c r="E36">
+        <v>5170000</v>
+      </c>
+      <c r="F36">
+        <v>78326.34882504</v>
+      </c>
+      <c r="G36">
+        <v>389622856218.3352</v>
+      </c>
+      <c r="H36">
+        <v>210000</v>
+      </c>
+      <c r="I36">
+        <v>5011500</v>
+      </c>
+      <c r="J36">
+        <v>1.031127257308191</v>
+      </c>
+      <c r="K36">
+        <v>1.037842389740883</v>
+      </c>
+      <c r="L36">
+        <v>6.282318352000527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2">
+        <v>44498.375</v>
+      </c>
+      <c r="B37">
+        <v>5170000</v>
+      </c>
+      <c r="C37">
+        <v>5350000</v>
+      </c>
+      <c r="D37">
+        <v>5140000</v>
+      </c>
+      <c r="E37">
+        <v>5291000</v>
+      </c>
+      <c r="F37">
+        <v>73803.82788089001</v>
+      </c>
+      <c r="G37">
+        <v>386834324491.0435</v>
+      </c>
+      <c r="H37">
+        <v>105000</v>
+      </c>
+      <c r="I37">
+        <v>5380000</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1.037842389740883</v>
+      </c>
+      <c r="L37">
+        <v>6.282318352000527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2">
+        <v>44499.375</v>
+      </c>
+      <c r="B38">
+        <v>5292000</v>
+      </c>
+      <c r="C38">
+        <v>5305000</v>
+      </c>
+      <c r="D38">
+        <v>5067000</v>
+      </c>
+      <c r="E38">
+        <v>5131000</v>
+      </c>
+      <c r="F38">
+        <v>52850.3713316</v>
+      </c>
+      <c r="G38">
+        <v>273357091145.8974</v>
+      </c>
+      <c r="H38">
+        <v>119000</v>
+      </c>
+      <c r="I38">
+        <v>5397000</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1.037842389740883</v>
+      </c>
+      <c r="L38">
+        <v>6.282318352000527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
+        <v>44500.375</v>
+      </c>
+      <c r="B39">
+        <v>5131000</v>
+      </c>
+      <c r="C39">
+        <v>5237000</v>
+      </c>
+      <c r="D39">
+        <v>4995000</v>
+      </c>
+      <c r="E39">
+        <v>5062000</v>
+      </c>
+      <c r="F39">
+        <v>55203.47158334</v>
+      </c>
+      <c r="G39">
+        <v>281826473024.4842</v>
+      </c>
+      <c r="H39">
+        <v>121000</v>
+      </c>
+      <c r="I39">
+        <v>5250000</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1.037842389740883</v>
+      </c>
+      <c r="L39">
+        <v>6.282318352000527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
+        <v>44501.375</v>
+      </c>
+      <c r="B40">
+        <v>5068000</v>
+      </c>
+      <c r="C40">
+        <v>5200000</v>
+      </c>
+      <c r="D40">
+        <v>4950000</v>
+      </c>
+      <c r="E40">
+        <v>5134000</v>
+      </c>
+      <c r="F40">
+        <v>45890.14870039</v>
+      </c>
+      <c r="G40">
+        <v>233725968624.6225</v>
+      </c>
+      <c r="H40">
+        <v>125000</v>
+      </c>
+      <c r="I40">
+        <v>5189000</v>
+      </c>
+      <c r="J40">
+        <v>0.988900655232222</v>
+      </c>
+      <c r="K40">
+        <v>1.026323019242534</v>
+      </c>
+      <c r="L40">
+        <v>7.322523211448538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
+        <v>44502.375</v>
+      </c>
+      <c r="B41">
+        <v>5134000</v>
+      </c>
+      <c r="C41">
+        <v>5399000</v>
+      </c>
+      <c r="D41">
+        <v>5092000</v>
+      </c>
+      <c r="E41">
+        <v>5376000</v>
+      </c>
+      <c r="F41">
+        <v>53510.60019025</v>
+      </c>
+      <c r="G41">
+        <v>280017813894.8364</v>
+      </c>
+      <c r="H41">
+        <v>153500</v>
+      </c>
+      <c r="I41">
+        <v>5259000</v>
+      </c>
+      <c r="J41">
+        <v>1.021747575584712</v>
+      </c>
+      <c r="K41">
+        <v>1.048643056677841</v>
+      </c>
+      <c r="L41">
+        <v>5.30701277998911</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2">
+        <v>44503.375</v>
+      </c>
+      <c r="B42">
+        <v>5376000</v>
+      </c>
+      <c r="C42">
+        <v>5499000</v>
+      </c>
+      <c r="D42">
+        <v>5260000</v>
+      </c>
+      <c r="E42">
+        <v>5461000</v>
+      </c>
+      <c r="F42">
+        <v>64607.08775705</v>
+      </c>
+      <c r="G42">
+        <v>347528201365.3987</v>
+      </c>
+      <c r="H42">
+        <v>119500</v>
+      </c>
+      <c r="I42">
+        <v>5529500</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1.048643056677841</v>
+      </c>
+      <c r="L42">
+        <v>5.30701277998911</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2">
+        <v>44504.375</v>
+      </c>
+      <c r="B43">
+        <v>5460000</v>
+      </c>
+      <c r="C43">
+        <v>5487000</v>
+      </c>
+      <c r="D43">
+        <v>5372000</v>
+      </c>
+      <c r="E43">
+        <v>5450000</v>
+      </c>
+      <c r="F43">
+        <v>37988.50867991</v>
+      </c>
+      <c r="G43">
+        <v>205979407870.6675</v>
+      </c>
+      <c r="H43">
+        <v>57500</v>
+      </c>
+      <c r="I43">
+        <v>5579500</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1.048643056677841</v>
+      </c>
+      <c r="L43">
+        <v>5.30701277998911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2">
+        <v>44505.375</v>
+      </c>
+      <c r="B44">
+        <v>5450000</v>
+      </c>
+      <c r="C44">
+        <v>5485000</v>
+      </c>
+      <c r="D44">
+        <v>5396000</v>
+      </c>
+      <c r="E44">
+        <v>5440000</v>
+      </c>
+      <c r="F44">
+        <v>27849.88927434</v>
+      </c>
+      <c r="G44">
+        <v>151629484550.508</v>
+      </c>
+      <c r="H44">
+        <v>44500</v>
+      </c>
+      <c r="I44">
+        <v>5507500</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1.048643056677841</v>
+      </c>
+      <c r="L44">
+        <v>5.30701277998911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2">
+        <v>44506.375</v>
+      </c>
+      <c r="B45">
+        <v>5444000</v>
+      </c>
+      <c r="C45">
+        <v>5490000</v>
+      </c>
+      <c r="D45">
+        <v>5341000</v>
+      </c>
+      <c r="E45">
+        <v>5476000</v>
+      </c>
+      <c r="F45">
+        <v>29608.67182601</v>
+      </c>
+      <c r="G45">
+        <v>160319073043.9024</v>
+      </c>
+      <c r="H45">
+        <v>74500</v>
+      </c>
+      <c r="I45">
+        <v>5488500</v>
+      </c>
+      <c r="J45">
+        <v>0.9972225107041998</v>
+      </c>
+      <c r="K45">
+        <v>1.045730461812803</v>
+      </c>
+      <c r="L45">
+        <v>5.570021538380037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
+        <v>44507.375</v>
+      </c>
+      <c r="B46">
+        <v>5474000</v>
+      </c>
+      <c r="C46">
+        <v>5620000</v>
+      </c>
+      <c r="D46">
+        <v>5463000</v>
+      </c>
+      <c r="E46">
+        <v>5587000</v>
+      </c>
+      <c r="F46">
+        <v>31909.41698857</v>
+      </c>
+      <c r="G46">
+        <v>177319886283.7179</v>
+      </c>
+      <c r="H46">
+        <v>78500</v>
+      </c>
+      <c r="I46">
+        <v>5548500</v>
+      </c>
+      <c r="J46">
+        <v>1.00643881229161</v>
+      </c>
+      <c r="K46">
+        <v>1.052463723964035</v>
+      </c>
+      <c r="L46">
+        <v>4.962004632364851</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
+        <v>44508.375</v>
+      </c>
+      <c r="B47">
+        <v>5587000</v>
+      </c>
+      <c r="C47">
+        <v>5813000</v>
+      </c>
+      <c r="D47">
+        <v>5584000</v>
+      </c>
+      <c r="E47">
+        <v>5805000</v>
+      </c>
+      <c r="F47">
+        <v>46591.1720227</v>
+      </c>
+      <c r="G47">
+        <v>266979502141.6465</v>
+      </c>
+      <c r="H47">
+        <v>114500</v>
+      </c>
+      <c r="I47">
+        <v>5665500</v>
+      </c>
+      <c r="J47">
+        <v>1.02412271644162</v>
+      </c>
+      <c r="K47">
+        <v>1.077852007942311</v>
+      </c>
+      <c r="L47">
+        <v>2.669430018931341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
+        <v>44509.375</v>
+      </c>
+      <c r="B48">
+        <v>5805000</v>
+      </c>
+      <c r="C48">
+        <v>5827000</v>
+      </c>
+      <c r="D48">
+        <v>5670000</v>
+      </c>
+      <c r="E48">
+        <v>5713000</v>
+      </c>
+      <c r="F48">
+        <v>41428.79268004</v>
+      </c>
+      <c r="G48">
+        <v>238691328217.7024</v>
+      </c>
+      <c r="H48">
+        <v>78500</v>
+      </c>
+      <c r="I48">
+        <v>5919500</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1.077852007942311</v>
+      </c>
+      <c r="L48">
+        <v>2.669430018931341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
+        <v>44510.375</v>
+      </c>
+      <c r="B49">
+        <v>5709000</v>
+      </c>
+      <c r="C49">
+        <v>5820000</v>
+      </c>
+      <c r="D49">
+        <v>5575000</v>
+      </c>
+      <c r="E49">
+        <v>5689000</v>
+      </c>
+      <c r="F49">
+        <v>53745.66221832</v>
+      </c>
+      <c r="G49">
+        <v>305465774047.5657</v>
+      </c>
+      <c r="H49">
+        <v>122500</v>
+      </c>
+      <c r="I49">
+        <v>5787500</v>
+      </c>
+      <c r="J49">
+        <v>0.9824805615550757</v>
+      </c>
+      <c r="K49">
+        <v>1.058968646036428</v>
+      </c>
+      <c r="L49">
+        <v>4.374606948524078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
+        <v>44511.375</v>
+      </c>
+      <c r="B50">
+        <v>5689000</v>
+      </c>
+      <c r="C50">
+        <v>5790000</v>
+      </c>
+      <c r="D50">
+        <v>5601000</v>
+      </c>
+      <c r="E50">
+        <v>5749000</v>
+      </c>
+      <c r="F50">
+        <v>31934.50541021</v>
+      </c>
+      <c r="G50">
+        <v>182119911755.1303</v>
+      </c>
+      <c r="H50">
+        <v>94500</v>
+      </c>
+      <c r="I50">
+        <v>5811500</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1.058968646036428</v>
+      </c>
+      <c r="L50">
+        <v>4.374606948524078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
+        <v>44512.375</v>
+      </c>
+      <c r="B51">
+        <v>5746000</v>
+      </c>
+      <c r="C51">
+        <v>5811000</v>
+      </c>
+      <c r="D51">
+        <v>5551000</v>
+      </c>
+      <c r="E51">
+        <v>5684000</v>
+      </c>
+      <c r="F51">
+        <v>40976.82100558</v>
+      </c>
+      <c r="G51">
+        <v>232474640330.1427</v>
+      </c>
+      <c r="H51">
+        <v>130000</v>
+      </c>
+      <c r="I51">
+        <v>5840500</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1.058968646036428</v>
+      </c>
+      <c r="L51">
+        <v>4.374606948524078</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
+        <v>44513.375</v>
+      </c>
+      <c r="B52">
+        <v>5685000</v>
+      </c>
+      <c r="C52">
+        <v>5732000</v>
+      </c>
+      <c r="D52">
+        <v>5582000</v>
+      </c>
+      <c r="E52">
+        <v>5622000</v>
+      </c>
+      <c r="F52">
+        <v>24371.54869301</v>
+      </c>
+      <c r="G52">
+        <v>137596291422.0687</v>
+      </c>
+      <c r="H52">
+        <v>75000</v>
+      </c>
+      <c r="I52">
+        <v>5815000</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1.058968646036428</v>
+      </c>
+      <c r="L52">
+        <v>4.374606948524078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
+        <v>44514.375</v>
+      </c>
+      <c r="B53">
+        <v>5622000</v>
+      </c>
+      <c r="C53">
+        <v>5681000</v>
+      </c>
+      <c r="D53">
+        <v>5504000</v>
+      </c>
+      <c r="E53">
+        <v>5609000</v>
+      </c>
+      <c r="F53">
+        <v>26096.29283698</v>
+      </c>
+      <c r="G53">
+        <v>146072710246.8613</v>
+      </c>
+      <c r="H53">
+        <v>88500</v>
+      </c>
+      <c r="I53">
+        <v>5697000</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1.058968646036428</v>
+      </c>
+      <c r="L53">
+        <v>4.374606948524078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
+        <v>44515.375</v>
+      </c>
+      <c r="B54">
+        <v>5609000</v>
+      </c>
+      <c r="C54">
+        <v>5748000</v>
+      </c>
+      <c r="D54">
+        <v>5540000</v>
+      </c>
+      <c r="E54">
+        <v>5563000</v>
+      </c>
+      <c r="F54">
+        <v>39668.68979512</v>
+      </c>
+      <c r="G54">
+        <v>224279067150.7272</v>
+      </c>
+      <c r="H54">
+        <v>104000</v>
+      </c>
+      <c r="I54">
+        <v>5697500</v>
+      </c>
+      <c r="J54">
+        <v>0.9758931548924967</v>
+      </c>
+      <c r="K54">
+        <v>1.033440252912725</v>
+      </c>
+      <c r="L54">
+        <v>6.679833487160135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>44516.375</v>
+      </c>
+      <c r="B55">
+        <v>5563000</v>
+      </c>
+      <c r="C55">
+        <v>5568000</v>
+      </c>
+      <c r="D55">
+        <v>5133000</v>
+      </c>
+      <c r="E55">
+        <v>5179000</v>
+      </c>
+      <c r="F55">
+        <v>99784.15517403001</v>
+      </c>
+      <c r="G55">
+        <v>529216931358.1021</v>
+      </c>
+      <c r="H55">
+        <v>217500</v>
+      </c>
+      <c r="I55">
+        <v>5667000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1.033440252912725</v>
+      </c>
+      <c r="L55">
+        <v>6.679833487160135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
+        <v>44517.375</v>
+      </c>
+      <c r="B56">
+        <v>5181000</v>
+      </c>
+      <c r="C56">
+        <v>5273000</v>
+      </c>
+      <c r="D56">
+        <v>5000000</v>
+      </c>
+      <c r="E56">
+        <v>5253000</v>
+      </c>
+      <c r="F56">
+        <v>79363.56576411</v>
+      </c>
+      <c r="G56">
+        <v>407318422621.3735</v>
+      </c>
+      <c r="H56">
+        <v>136500</v>
+      </c>
+      <c r="I56">
+        <v>5398500</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1.033440252912725</v>
+      </c>
+      <c r="L56">
+        <v>6.679833487160135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
+        <v>44518.375</v>
+      </c>
+      <c r="B57">
+        <v>5253000</v>
+      </c>
+      <c r="C57">
+        <v>5326000</v>
+      </c>
+      <c r="D57">
+        <v>4903000</v>
+      </c>
+      <c r="E57">
+        <v>4953000</v>
+      </c>
+      <c r="F57">
+        <v>83571.43991253999</v>
+      </c>
+      <c r="G57">
+        <v>429798828461.8202</v>
+      </c>
+      <c r="H57">
+        <v>211500</v>
+      </c>
+      <c r="I57">
+        <v>5389500</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1.033440252912725</v>
+      </c>
+      <c r="L57">
+        <v>6.679833487160135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
+        <v>44519.375</v>
+      </c>
+      <c r="B58">
+        <v>4953000</v>
+      </c>
+      <c r="C58">
+        <v>5347000</v>
+      </c>
+      <c r="D58">
+        <v>4921000</v>
+      </c>
+      <c r="E58">
+        <v>5311000</v>
+      </c>
+      <c r="F58">
+        <v>62029.90456799</v>
+      </c>
+      <c r="G58">
+        <v>317537468782.7933</v>
+      </c>
+      <c r="H58">
+        <v>213000</v>
+      </c>
+      <c r="I58">
+        <v>5164500</v>
+      </c>
+      <c r="J58">
+        <v>1.027866734437022</v>
+      </c>
+      <c r="K58">
+        <v>1.062238857997173</v>
+      </c>
+      <c r="L58">
+        <v>4.079305189328153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
         <v>44520.375</v>
       </c>
-      <c r="B11">
+      <c r="B59">
         <v>5311000</v>
       </c>
-      <c r="C11">
+      <c r="C59">
         <v>5484000</v>
       </c>
-      <c r="D11">
+      <c r="D59">
         <v>5230000</v>
       </c>
-      <c r="E11">
-        <v>5461000</v>
-      </c>
-      <c r="F11">
-        <v>36358.58627105</v>
-      </c>
-      <c r="G11">
-        <v>194111847960.0945</v>
-      </c>
-      <c r="H11">
-        <v>177800</v>
-      </c>
-      <c r="I11">
-        <v>5609200</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.9719212722174216</v>
-      </c>
-      <c r="L11">
-        <v>2.807872778257836</v>
+      <c r="E59">
+        <v>5450000</v>
+      </c>
+      <c r="F59">
+        <v>38367.83900303</v>
+      </c>
+      <c r="G59">
+        <v>205080252300.8211</v>
+      </c>
+      <c r="H59">
+        <v>127000</v>
+      </c>
+      <c r="I59">
+        <v>5524000</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1.062238857997173</v>
+      </c>
+      <c r="L59">
+        <v>4.079305189328153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2">
+        <v>44521.375</v>
+      </c>
+      <c r="B60">
+        <v>5450000</v>
+      </c>
+      <c r="C60">
+        <v>5472000</v>
+      </c>
+      <c r="D60">
+        <v>5292000</v>
+      </c>
+      <c r="E60">
+        <v>5303000</v>
+      </c>
+      <c r="F60">
+        <v>30403.79133039</v>
+      </c>
+      <c r="G60">
+        <v>163970393624.7728</v>
+      </c>
+      <c r="H60">
+        <v>90000</v>
+      </c>
+      <c r="I60">
+        <v>5577000</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1.062238857997173</v>
+      </c>
+      <c r="L60">
+        <v>4.079305189328153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2">
+        <v>44522.375</v>
+      </c>
+      <c r="B61">
+        <v>5303000</v>
+      </c>
+      <c r="C61">
+        <v>5319000</v>
+      </c>
+      <c r="D61">
+        <v>5160000</v>
+      </c>
+      <c r="E61">
+        <v>5251000</v>
+      </c>
+      <c r="F61">
+        <v>22566.62784537</v>
+      </c>
+      <c r="G61">
+        <v>117858457388.1369</v>
+      </c>
+      <c r="H61">
+        <v>79500</v>
+      </c>
+      <c r="I61">
+        <v>5393000</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1.062238857997173</v>
+      </c>
+      <c r="L61">
+        <v>4.079305189328153</v>
       </c>
     </row>
   </sheetData>

--- a/dd.xlsx
+++ b/dd.xlsx
@@ -453,28 +453,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>44463.375</v>
+        <v>44465.375</v>
       </c>
       <c r="B2">
-        <v>3817000</v>
+        <v>757</v>
       </c>
       <c r="C2">
-        <v>3823000</v>
+        <v>761</v>
       </c>
       <c r="D2">
-        <v>3426000</v>
+        <v>688</v>
       </c>
       <c r="E2">
-        <v>3568000</v>
+        <v>713</v>
       </c>
       <c r="F2">
-        <v>156719.60148282</v>
+        <v>10279899.4249491</v>
       </c>
       <c r="G2">
-        <v>561468045194.0671</v>
+        <v>7370393883.774788</v>
       </c>
       <c r="H2">
-        <v>198500</v>
+        <v>36.5</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -488,31 +488,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>44464.375</v>
+        <v>44466.375</v>
       </c>
       <c r="B3">
-        <v>3570000</v>
+        <v>712</v>
       </c>
       <c r="C3">
-        <v>3608000</v>
+        <v>718</v>
       </c>
       <c r="D3">
-        <v>3450000</v>
+        <v>681</v>
       </c>
       <c r="E3">
-        <v>3591000</v>
+        <v>685</v>
       </c>
       <c r="F3">
-        <v>67632.28551726999</v>
+        <v>4651484.53330204</v>
       </c>
       <c r="G3">
-        <v>239843697370.0372</v>
+        <v>3262813766.044321</v>
       </c>
       <c r="H3">
-        <v>79000</v>
+        <v>18.5</v>
       </c>
       <c r="I3">
-        <v>3768500</v>
+        <v>748.5</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -526,37 +526,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>44465.375</v>
+        <v>44467.375</v>
       </c>
       <c r="B4">
-        <v>3590000</v>
+        <v>686</v>
       </c>
       <c r="C4">
-        <v>3795000</v>
+        <v>703</v>
       </c>
       <c r="D4">
-        <v>3415000</v>
+        <v>627</v>
       </c>
       <c r="E4">
-        <v>3739000</v>
+        <v>630</v>
       </c>
       <c r="F4">
-        <v>97857.06104253</v>
+        <v>5722900.79232736</v>
       </c>
       <c r="G4">
-        <v>351354919812.9976</v>
+        <v>3768667364.17873</v>
       </c>
       <c r="H4">
-        <v>190000</v>
+        <v>38</v>
       </c>
       <c r="I4">
-        <v>3669000</v>
+        <v>704.5</v>
       </c>
       <c r="J4">
-        <v>1.018578768056691</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.018578768056691</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -564,37 +564,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>44466.375</v>
+        <v>44468.375</v>
       </c>
       <c r="B5">
-        <v>3739000</v>
+        <v>630</v>
       </c>
       <c r="C5">
-        <v>3836000</v>
+        <v>664</v>
       </c>
       <c r="D5">
-        <v>3598000</v>
+        <v>608</v>
       </c>
       <c r="E5">
-        <v>3599000</v>
+        <v>632</v>
       </c>
       <c r="F5">
-        <v>70918.83518849</v>
+        <v>5589615.1501408</v>
       </c>
       <c r="G5">
-        <v>264914242972.3792</v>
+        <v>3561647372.146731</v>
       </c>
       <c r="H5">
-        <v>119000</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>3929000</v>
+        <v>668</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1.018578768056691</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -602,37 +602,37 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>44467.375</v>
+        <v>44469.375</v>
       </c>
       <c r="B6">
-        <v>3599000</v>
+        <v>635</v>
       </c>
       <c r="C6">
-        <v>3631000</v>
+        <v>800</v>
       </c>
       <c r="D6">
-        <v>3428000</v>
+        <v>632</v>
       </c>
       <c r="E6">
-        <v>3445000</v>
+        <v>727</v>
       </c>
       <c r="F6">
-        <v>81142.9338129</v>
+        <v>154973176.8535353</v>
       </c>
       <c r="G6">
-        <v>287466551336.2194</v>
+        <v>114013132678.0545</v>
       </c>
       <c r="H6">
-        <v>101500</v>
+        <v>84</v>
       </c>
       <c r="I6">
-        <v>3718000</v>
+        <v>663</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>1.096030920060332</v>
       </c>
       <c r="K6">
-        <v>1.018578768056691</v>
+        <v>1.096030920060332</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -640,75 +640,75 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>44468.375</v>
+        <v>44470.375</v>
       </c>
       <c r="B7">
-        <v>3447000</v>
+        <v>729</v>
       </c>
       <c r="C7">
-        <v>3590000</v>
+        <v>804</v>
       </c>
       <c r="D7">
-        <v>3415000</v>
+        <v>724</v>
       </c>
       <c r="E7">
-        <v>3489000</v>
+        <v>776</v>
       </c>
       <c r="F7">
-        <v>71946.02446448999</v>
+        <v>59144610.20895799</v>
       </c>
       <c r="G7">
-        <v>252226869935.4079</v>
+        <v>45496315204.20885</v>
       </c>
       <c r="H7">
-        <v>87500</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>3548500</v>
+        <v>813</v>
       </c>
       <c r="J7">
-        <v>0.9827323516979006</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.000990308121903</v>
+        <v>1.096030920060332</v>
       </c>
       <c r="L7">
-        <v>1.726764830209941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>44469.375</v>
+        <v>44471.375</v>
       </c>
       <c r="B8">
-        <v>3485000</v>
+        <v>776</v>
       </c>
       <c r="C8">
-        <v>3709000</v>
+        <v>792</v>
       </c>
       <c r="D8">
-        <v>3474000</v>
+        <v>753</v>
       </c>
       <c r="E8">
-        <v>3663000</v>
+        <v>785</v>
       </c>
       <c r="F8">
-        <v>75964.18742052</v>
+        <v>13205560.73750965</v>
       </c>
       <c r="G8">
-        <v>276395058728.9658</v>
+        <v>10214242592.2381</v>
       </c>
       <c r="H8">
-        <v>117500</v>
+        <v>19.5</v>
       </c>
       <c r="I8">
-        <v>3572500</v>
+        <v>816</v>
       </c>
       <c r="J8">
-        <v>1.024832400279916</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.025847300129502</v>
+        <v>1.096030920060332</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -716,37 +716,37 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>44470.375</v>
+        <v>44472.375</v>
       </c>
       <c r="B9">
-        <v>3663000</v>
+        <v>785</v>
       </c>
       <c r="C9">
-        <v>4031000</v>
+        <v>871</v>
       </c>
       <c r="D9">
-        <v>3650000</v>
+        <v>785</v>
       </c>
       <c r="E9">
-        <v>4011000</v>
+        <v>830</v>
       </c>
       <c r="F9">
-        <v>113115.85590455</v>
+        <v>61254515.97432002</v>
       </c>
       <c r="G9">
-        <v>435815987441.9341</v>
+        <v>50926660698.47028</v>
       </c>
       <c r="H9">
-        <v>190500</v>
+        <v>43</v>
       </c>
       <c r="I9">
-        <v>3780500</v>
+        <v>804.5</v>
       </c>
       <c r="J9">
-        <v>1.060470771062029</v>
+        <v>1.031196706028589</v>
       </c>
       <c r="K9">
-        <v>1.087881077360234</v>
+        <v>1.130223474471698</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -754,1978 +754,1978 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>44471.375</v>
+        <v>44473.375</v>
       </c>
       <c r="B10">
-        <v>4012000</v>
+        <v>829</v>
       </c>
       <c r="C10">
-        <v>4210000</v>
+        <v>913</v>
       </c>
       <c r="D10">
-        <v>3961000</v>
+        <v>796</v>
       </c>
       <c r="E10">
-        <v>4134000</v>
+        <v>845</v>
       </c>
       <c r="F10">
-        <v>76351.38408153001</v>
+        <v>69969408.49208619</v>
       </c>
       <c r="G10">
-        <v>310046644076.1509</v>
+        <v>60212689402.82496</v>
       </c>
       <c r="H10">
-        <v>124500</v>
+        <v>58.5</v>
       </c>
       <c r="I10">
-        <v>4202500</v>
+        <v>872</v>
       </c>
       <c r="J10">
-        <v>0.9832001784651994</v>
+        <v>0.9685366972477065</v>
       </c>
       <c r="K10">
-        <v>1.069604869409495</v>
+        <v>1.094662911116646</v>
       </c>
       <c r="L10">
-        <v>1.679982153480065</v>
+        <v>3.146330275229339</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>44472.375</v>
+        <v>44474.375</v>
       </c>
       <c r="B11">
-        <v>4134000</v>
+        <v>846</v>
       </c>
       <c r="C11">
-        <v>4214000</v>
+        <v>856</v>
       </c>
       <c r="D11">
-        <v>4062000</v>
+        <v>803</v>
       </c>
       <c r="E11">
-        <v>4154000</v>
+        <v>849</v>
       </c>
       <c r="F11">
-        <v>54562.06081694</v>
+        <v>27877617.83885367</v>
       </c>
       <c r="G11">
-        <v>226284602771.6396</v>
+        <v>23001098895.35251</v>
       </c>
       <c r="H11">
-        <v>76000</v>
+        <v>26.5</v>
       </c>
       <c r="I11">
-        <v>4258500</v>
+        <v>904.5</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1.069604869409495</v>
+        <v>1.094662911116646</v>
       </c>
       <c r="L11">
-        <v>1.679982153480065</v>
+        <v>3.146330275229339</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>44473.375</v>
+        <v>44475.375</v>
       </c>
       <c r="B12">
-        <v>4154000</v>
+        <v>860</v>
       </c>
       <c r="C12">
-        <v>4168000</v>
+        <v>1950</v>
       </c>
       <c r="D12">
-        <v>3998000</v>
+        <v>849</v>
       </c>
       <c r="E12">
-        <v>4131000</v>
+        <v>1190</v>
       </c>
       <c r="F12">
-        <v>76789.78280382</v>
+        <v>1168550284.245078</v>
       </c>
       <c r="G12">
-        <v>313965525768.4938</v>
+        <v>1656024791557.067</v>
       </c>
       <c r="H12">
-        <v>85000</v>
+        <v>550.5</v>
       </c>
       <c r="I12">
-        <v>4230000</v>
+        <v>886.5</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>1.341857586012408</v>
       </c>
       <c r="K12">
-        <v>1.069604869409495</v>
+        <v>1.468881731408299</v>
       </c>
       <c r="L12">
-        <v>1.679982153480065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>44474.375</v>
+        <v>44476.375</v>
       </c>
       <c r="B13">
-        <v>4134000</v>
+        <v>1190</v>
       </c>
       <c r="C13">
-        <v>4260000</v>
+        <v>1325</v>
       </c>
       <c r="D13">
-        <v>4087000</v>
+        <v>1100</v>
       </c>
       <c r="E13">
-        <v>4211000</v>
+        <v>1125</v>
       </c>
       <c r="F13">
-        <v>57086.91311704</v>
+        <v>130885529.9547264</v>
       </c>
       <c r="G13">
-        <v>237037580196.1148</v>
+        <v>158744810567.8823</v>
       </c>
       <c r="H13">
-        <v>86500</v>
+        <v>112.5</v>
       </c>
       <c r="I13">
-        <v>4219000</v>
+        <v>1740.5</v>
       </c>
       <c r="J13">
-        <v>0.9976038160701589</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.067041899410136</v>
+        <v>1.468881731408299</v>
       </c>
       <c r="L13">
-        <v>1.915575000225583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
-        <v>44475.375</v>
+        <v>44477.375</v>
       </c>
       <c r="B14">
-        <v>4214000</v>
+        <v>1120</v>
       </c>
       <c r="C14">
-        <v>4386000</v>
+        <v>1125</v>
       </c>
       <c r="D14">
-        <v>4058000</v>
+        <v>997</v>
       </c>
       <c r="E14">
-        <v>4328000</v>
+        <v>1060</v>
       </c>
       <c r="F14">
-        <v>109169.63919188</v>
+        <v>50305782.24305519</v>
       </c>
       <c r="G14">
-        <v>463530984640.3398</v>
+        <v>52668839095.45412</v>
       </c>
       <c r="H14">
-        <v>164000</v>
+        <v>64</v>
       </c>
       <c r="I14">
-        <v>4300500</v>
+        <v>1232.5</v>
       </c>
       <c r="J14">
-        <v>1.005894605278456</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.073331690222733</v>
+        <v>1.468881731408299</v>
       </c>
       <c r="L14">
-        <v>1.337406030887589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>44476.375</v>
+        <v>44478.375</v>
       </c>
       <c r="B15">
-        <v>4328000</v>
+        <v>1065</v>
       </c>
       <c r="C15">
-        <v>4421000</v>
+        <v>1095</v>
       </c>
       <c r="D15">
-        <v>4222000</v>
+        <v>978</v>
       </c>
       <c r="E15">
-        <v>4361000</v>
+        <v>1005</v>
       </c>
       <c r="F15">
-        <v>70607.88991296</v>
+        <v>29406027.79970104</v>
       </c>
       <c r="G15">
-        <v>306157507218.3364</v>
+        <v>30434244461.28908</v>
       </c>
       <c r="H15">
-        <v>99500</v>
+        <v>58.5</v>
       </c>
       <c r="I15">
-        <v>4492000</v>
+        <v>1129</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1.073331690222733</v>
+        <v>1.468881731408299</v>
       </c>
       <c r="L15">
-        <v>1.337406030887589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>44477.375</v>
+        <v>44479.375</v>
       </c>
       <c r="B16">
-        <v>4362000</v>
+        <v>1000</v>
       </c>
       <c r="C16">
-        <v>4469000</v>
+        <v>1070</v>
       </c>
       <c r="D16">
-        <v>4322000</v>
+        <v>980</v>
       </c>
       <c r="E16">
-        <v>4355000</v>
+        <v>1030</v>
       </c>
       <c r="F16">
-        <v>56829.03515054</v>
+        <v>14221818.91374286</v>
       </c>
       <c r="G16">
-        <v>249703652413.8403</v>
+        <v>14405687214.90483</v>
       </c>
       <c r="H16">
-        <v>73500</v>
+        <v>45</v>
       </c>
       <c r="I16">
-        <v>4461500</v>
+        <v>1058.5</v>
       </c>
       <c r="J16">
-        <v>0.9756291045612463</v>
+        <v>0.9725751062824752</v>
       </c>
       <c r="K16">
-        <v>1.047173635829214</v>
+        <v>1.428597806040812</v>
       </c>
       <c r="L16">
-        <v>3.741901792225032</v>
+        <v>2.742489371752471</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>44478.375</v>
+        <v>44480.375</v>
       </c>
       <c r="B17">
-        <v>4353000</v>
+        <v>1035</v>
       </c>
       <c r="C17">
-        <v>4441000</v>
+        <v>1070</v>
       </c>
       <c r="D17">
-        <v>4333000</v>
+        <v>987</v>
       </c>
       <c r="E17">
-        <v>4370000</v>
+        <v>1015</v>
       </c>
       <c r="F17">
-        <v>48110.57954428</v>
+        <v>10336021.8381474</v>
       </c>
       <c r="G17">
-        <v>211692940860.1382</v>
+        <v>10466446871.25758</v>
       </c>
       <c r="H17">
-        <v>54000</v>
+        <v>41.5</v>
       </c>
       <c r="I17">
-        <v>4426500</v>
+        <v>1080</v>
       </c>
       <c r="J17">
-        <v>0.9867359652095335</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>1.033283888291916</v>
+        <v>1.428597806040812</v>
       </c>
       <c r="L17">
-        <v>5.01867255571709</v>
+        <v>2.742489371752471</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
-        <v>44479.375</v>
+        <v>44481.375</v>
       </c>
       <c r="B18">
-        <v>4369000</v>
+        <v>1015</v>
       </c>
       <c r="C18">
-        <v>4394000</v>
+        <v>1015</v>
       </c>
       <c r="D18">
-        <v>4230000</v>
+        <v>921</v>
       </c>
       <c r="E18">
-        <v>4241000</v>
+        <v>978</v>
       </c>
       <c r="F18">
-        <v>48285.52893444</v>
+        <v>9228355.585397709</v>
       </c>
       <c r="G18">
-        <v>209124048893.8007</v>
+        <v>8862410065.149807</v>
       </c>
       <c r="H18">
-        <v>82000</v>
+        <v>47</v>
       </c>
       <c r="I18">
-        <v>4423000</v>
+        <v>1056.5</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1.033283888291916</v>
+        <v>1.428597806040812</v>
       </c>
       <c r="L18">
-        <v>5.01867255571709</v>
+        <v>2.742489371752471</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2">
-        <v>44480.375</v>
+        <v>44482.375</v>
       </c>
       <c r="B19">
-        <v>4242000</v>
+        <v>978</v>
       </c>
       <c r="C19">
-        <v>4439000</v>
+        <v>1090</v>
       </c>
       <c r="D19">
-        <v>4200000</v>
+        <v>963</v>
       </c>
       <c r="E19">
-        <v>4375000</v>
+        <v>1070</v>
       </c>
       <c r="F19">
-        <v>61370.87201744</v>
+        <v>44705329.40369278</v>
       </c>
       <c r="G19">
-        <v>267656682959.5279</v>
+        <v>46522733728.72215</v>
       </c>
       <c r="H19">
-        <v>119500</v>
+        <v>63.5</v>
       </c>
       <c r="I19">
-        <v>4324000</v>
+        <v>1025</v>
       </c>
       <c r="J19">
-        <v>1.011294634597595</v>
+        <v>1.04340243902439</v>
       </c>
       <c r="K19">
-        <v>1.044954452245756</v>
+        <v>1.490602435207877</v>
       </c>
       <c r="L19">
-        <v>3.945893168639402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2">
-        <v>44481.375</v>
+        <v>44483.375</v>
       </c>
       <c r="B20">
-        <v>4374000</v>
+        <v>1075</v>
       </c>
       <c r="C20">
-        <v>4378000</v>
+        <v>1075</v>
       </c>
       <c r="D20">
-        <v>4232000</v>
+        <v>1025</v>
       </c>
       <c r="E20">
-        <v>4311000</v>
+        <v>1055</v>
       </c>
       <c r="F20">
-        <v>55160.97807905</v>
+        <v>14187141.40620085</v>
       </c>
       <c r="G20">
-        <v>237046950424.4879</v>
+        <v>14848318539.69313</v>
       </c>
       <c r="H20">
-        <v>73000</v>
+        <v>25</v>
       </c>
       <c r="I20">
-        <v>4493500</v>
+        <v>1138.5</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>1.044954452245756</v>
+        <v>1.490602435207877</v>
       </c>
       <c r="L20">
-        <v>3.945893168639402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>44482.375</v>
+        <v>44484.375</v>
       </c>
       <c r="B21">
-        <v>4311000</v>
+        <v>1060</v>
       </c>
       <c r="C21">
-        <v>4403000</v>
+        <v>1070</v>
       </c>
       <c r="D21">
-        <v>4204000</v>
+        <v>921</v>
       </c>
       <c r="E21">
-        <v>4394000</v>
+        <v>953</v>
       </c>
       <c r="F21">
-        <v>51655.33194948</v>
+        <v>22571339.89274056</v>
       </c>
       <c r="G21">
-        <v>222157958940.4048</v>
+        <v>22182366591.48872</v>
       </c>
       <c r="H21">
-        <v>99500</v>
+        <v>74.5</v>
       </c>
       <c r="I21">
-        <v>4384000</v>
+        <v>1085</v>
       </c>
       <c r="J21">
-        <v>1.00178102189781</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.04681553900742</v>
+        <v>1.490602435207877</v>
       </c>
       <c r="L21">
-        <v>3.774818700998148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2">
-        <v>44483.375</v>
+        <v>44485.375</v>
       </c>
       <c r="B22">
-        <v>4389000</v>
+        <v>953</v>
       </c>
       <c r="C22">
-        <v>4649000</v>
+        <v>962</v>
       </c>
       <c r="D22">
-        <v>4370000</v>
+        <v>930</v>
       </c>
       <c r="E22">
-        <v>4609000</v>
+        <v>951</v>
       </c>
       <c r="F22">
-        <v>79166.71112686</v>
+        <v>6297045.77358608</v>
       </c>
       <c r="G22">
-        <v>358067671907.0831</v>
+        <v>5952174419.53791</v>
       </c>
       <c r="H22">
-        <v>139500</v>
+        <v>16</v>
       </c>
       <c r="I22">
-        <v>4488500</v>
+        <v>1027.5</v>
       </c>
       <c r="J22">
-        <v>1.026346385206639</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.074395344438405</v>
+        <v>1.490602435207877</v>
       </c>
       <c r="L22">
-        <v>1.239633007915938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2">
-        <v>44484.375</v>
+        <v>44486.375</v>
       </c>
       <c r="B23">
-        <v>4609000</v>
+        <v>949</v>
       </c>
       <c r="C23">
-        <v>4770000</v>
+        <v>1015</v>
       </c>
       <c r="D23">
-        <v>4555000</v>
+        <v>935</v>
       </c>
       <c r="E23">
-        <v>4752000</v>
+        <v>968</v>
       </c>
       <c r="F23">
-        <v>115787.57113377</v>
+        <v>36615075.31094462</v>
       </c>
       <c r="G23">
-        <v>539609933228.682</v>
+        <v>35780151197.38425</v>
       </c>
       <c r="H23">
-        <v>107500</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>4748500</v>
+        <v>965</v>
       </c>
       <c r="J23">
-        <v>1.000237074865747</v>
+        <v>1.002608808290155</v>
       </c>
       <c r="K23">
-        <v>1.074650056570447</v>
+        <v>1.494491131198173</v>
       </c>
       <c r="L23">
-        <v>1.21621940717014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2">
-        <v>44485.375</v>
+        <v>44487.375</v>
       </c>
       <c r="B24">
-        <v>4752000</v>
+        <v>967</v>
       </c>
       <c r="C24">
-        <v>4848000</v>
+        <v>972</v>
       </c>
       <c r="D24">
-        <v>4681000</v>
+        <v>905</v>
       </c>
       <c r="E24">
-        <v>4713000</v>
+        <v>930</v>
       </c>
       <c r="F24">
-        <v>64732.07463143</v>
+        <v>7875918.86615946</v>
       </c>
       <c r="G24">
-        <v>308397464751.6136</v>
+        <v>7322690370.431216</v>
       </c>
       <c r="H24">
-        <v>83500</v>
+        <v>33.5</v>
       </c>
       <c r="I24">
-        <v>4859500</v>
+        <v>1007</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1.074650056570447</v>
+        <v>1.494491131198173</v>
       </c>
       <c r="L24">
-        <v>1.21621940717014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2">
-        <v>44486.375</v>
+        <v>44488.375</v>
       </c>
       <c r="B25">
-        <v>4713000</v>
+        <v>930</v>
       </c>
       <c r="C25">
-        <v>4808000</v>
+        <v>1030</v>
       </c>
       <c r="D25">
-        <v>4575000</v>
+        <v>926</v>
       </c>
       <c r="E25">
-        <v>4744000</v>
+        <v>943</v>
       </c>
       <c r="F25">
-        <v>44259.83586468</v>
+        <v>58224212.67173429</v>
       </c>
       <c r="G25">
-        <v>208715975553.7106</v>
+        <v>56600012861.90912</v>
       </c>
       <c r="H25">
-        <v>116500</v>
+        <v>52</v>
       </c>
       <c r="I25">
-        <v>4796500</v>
+        <v>963.5</v>
       </c>
       <c r="J25">
-        <v>0.988554518920046</v>
+        <v>0.9782234042553192</v>
       </c>
       <c r="K25">
-        <v>1.062350169680399</v>
+        <v>1.461946201990059</v>
       </c>
       <c r="L25">
-        <v>2.346847298951704</v>
+        <v>2.17765957446809</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2">
-        <v>44487.375</v>
+        <v>44489.375</v>
       </c>
       <c r="B26">
-        <v>4741000</v>
+        <v>943</v>
       </c>
       <c r="C26">
-        <v>4796000</v>
+        <v>946</v>
       </c>
       <c r="D26">
-        <v>4550000</v>
+        <v>916</v>
       </c>
       <c r="E26">
-        <v>4631000</v>
+        <v>941</v>
       </c>
       <c r="F26">
-        <v>62399.95901938</v>
+        <v>9758172.529460739</v>
       </c>
       <c r="G26">
-        <v>291810115964.4838</v>
+        <v>9042958404.915754</v>
       </c>
       <c r="H26">
-        <v>123000</v>
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>4857500</v>
+        <v>995</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1.062350169680399</v>
+        <v>1.461946201990059</v>
       </c>
       <c r="L26">
-        <v>2.346847298951704</v>
+        <v>2.17765957446809</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2">
-        <v>44488.375</v>
+        <v>44490.375</v>
       </c>
       <c r="B27">
-        <v>4631000</v>
+        <v>940</v>
       </c>
       <c r="C27">
-        <v>4764000</v>
+        <v>941</v>
       </c>
       <c r="D27">
-        <v>4612000</v>
+        <v>906</v>
       </c>
       <c r="E27">
-        <v>4743000</v>
+        <v>922</v>
       </c>
       <c r="F27">
-        <v>44383.16759226</v>
+        <v>9274871.140781701</v>
       </c>
       <c r="G27">
-        <v>207640659534.9724</v>
+        <v>8556449305.21456</v>
       </c>
       <c r="H27">
-        <v>76000</v>
+        <v>17.5</v>
       </c>
       <c r="I27">
-        <v>4754000</v>
+        <v>955</v>
       </c>
       <c r="J27">
-        <v>0.9971861590239799</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1.05936088524207</v>
+        <v>1.461946201990059</v>
       </c>
       <c r="L27">
-        <v>2.621627741459458</v>
+        <v>2.17765957446809</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2">
-        <v>44489.375</v>
+        <v>44491.375</v>
       </c>
       <c r="B28">
-        <v>4743000</v>
+        <v>934</v>
       </c>
       <c r="C28">
-        <v>5045000</v>
+        <v>997</v>
       </c>
       <c r="D28">
-        <v>4690000</v>
+        <v>916</v>
       </c>
       <c r="E28">
-        <v>5040000</v>
+        <v>957</v>
       </c>
       <c r="F28">
-        <v>89963.75000424001</v>
+        <v>39294562.66193091</v>
       </c>
       <c r="G28">
-        <v>438579355717.2174</v>
+        <v>37316052540.16325</v>
       </c>
       <c r="H28">
-        <v>177500</v>
+        <v>40.5</v>
       </c>
       <c r="I28">
-        <v>4819000</v>
+        <v>951.5</v>
       </c>
       <c r="J28">
-        <v>1.045360136957875</v>
+        <v>1.005280346820809</v>
       </c>
       <c r="K28">
-        <v>1.107413640084466</v>
+        <v>1.469665784969932</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.661123690197995</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2">
-        <v>44490.375</v>
+        <v>44492.375</v>
       </c>
       <c r="B29">
-        <v>5039000</v>
+        <v>954</v>
       </c>
       <c r="C29">
-        <v>5299000</v>
+        <v>964</v>
       </c>
       <c r="D29">
-        <v>4950000</v>
+        <v>933</v>
       </c>
       <c r="E29">
-        <v>4967000</v>
+        <v>964</v>
       </c>
       <c r="F29">
-        <v>132665.08258039</v>
+        <v>7789620.60144258</v>
       </c>
       <c r="G29">
-        <v>676797579861.6123</v>
+        <v>7368151352.762377</v>
       </c>
       <c r="H29">
-        <v>174500</v>
+        <v>15.5</v>
       </c>
       <c r="I29">
-        <v>5216500</v>
+        <v>994.5</v>
       </c>
       <c r="J29">
-        <v>0.9516709958784626</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>1.053893441708577</v>
+        <v>1.469665784969932</v>
       </c>
       <c r="L29">
-        <v>4.832900412153736</v>
+        <v>1.661123690197995</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2">
-        <v>44491.375</v>
+        <v>44493.375</v>
       </c>
       <c r="B30">
-        <v>4966000</v>
+        <v>965</v>
       </c>
       <c r="C30">
-        <v>5100000</v>
+        <v>1030</v>
       </c>
       <c r="D30">
-        <v>4800000</v>
+        <v>943</v>
       </c>
       <c r="E30">
-        <v>4867000</v>
+        <v>1025</v>
       </c>
       <c r="F30">
-        <v>72389.53679528</v>
+        <v>15331098.59961071</v>
       </c>
       <c r="G30">
-        <v>359555603946.8616</v>
+        <v>15027767866.63699</v>
       </c>
       <c r="H30">
-        <v>150000</v>
+        <v>43.5</v>
       </c>
       <c r="I30">
-        <v>5140500</v>
+        <v>980.5</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>1.044885007649159</v>
       </c>
       <c r="K30">
-        <v>1.053893441708577</v>
+        <v>1.535631744970014</v>
       </c>
       <c r="L30">
-        <v>4.832900412153736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2">
-        <v>44492.375</v>
+        <v>44494.375</v>
       </c>
       <c r="B31">
-        <v>4867000</v>
+        <v>1025</v>
       </c>
       <c r="C31">
-        <v>5097000</v>
+        <v>1030</v>
       </c>
       <c r="D31">
-        <v>4821000</v>
+        <v>961</v>
       </c>
       <c r="E31">
-        <v>5080000</v>
+        <v>998</v>
       </c>
       <c r="F31">
-        <v>48233.9916998</v>
+        <v>22350182.558695</v>
       </c>
       <c r="G31">
-        <v>238623560870.2636</v>
+        <v>21931033965.71673</v>
       </c>
       <c r="H31">
-        <v>138000</v>
+        <v>34.5</v>
       </c>
       <c r="I31">
-        <v>5017000</v>
+        <v>1068.5</v>
       </c>
       <c r="J31">
-        <v>1.012057305162448</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>1.06660055654396</v>
+        <v>1.535631744970014</v>
       </c>
       <c r="L31">
-        <v>3.685441650998025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2">
-        <v>44493.375</v>
+        <v>44495.375</v>
       </c>
       <c r="B32">
-        <v>5085000</v>
+        <v>998</v>
       </c>
       <c r="C32">
-        <v>5120000</v>
+        <v>998</v>
       </c>
       <c r="D32">
-        <v>4900000</v>
+        <v>966</v>
       </c>
       <c r="E32">
-        <v>4999000</v>
+        <v>974</v>
       </c>
       <c r="F32">
-        <v>46799.7842703</v>
+        <v>12341671.01933129</v>
       </c>
       <c r="G32">
-        <v>234017892375.5342</v>
+        <v>12050131784.31585</v>
       </c>
       <c r="H32">
-        <v>110000</v>
+        <v>16</v>
       </c>
       <c r="I32">
-        <v>5223000</v>
+        <v>1032.5</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>1.06660055654396</v>
+        <v>1.535631744970014</v>
       </c>
       <c r="L32">
-        <v>3.685441650998025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
-        <v>44494.375</v>
+        <v>44496.375</v>
       </c>
       <c r="B33">
-        <v>4999000</v>
+        <v>973</v>
       </c>
       <c r="C33">
-        <v>5117000</v>
+        <v>974</v>
       </c>
       <c r="D33">
-        <v>4976000</v>
+        <v>843</v>
       </c>
       <c r="E33">
-        <v>5105000</v>
+        <v>894</v>
       </c>
       <c r="F33">
-        <v>43456.67793782</v>
+        <v>17663129.7353191</v>
       </c>
       <c r="G33">
-        <v>219388214860.9637</v>
+        <v>16093785851.88787</v>
       </c>
       <c r="H33">
-        <v>70500</v>
+        <v>65.5</v>
       </c>
       <c r="I33">
-        <v>5109000</v>
+        <v>989</v>
       </c>
       <c r="J33">
-        <v>0.9987170679193581</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1.065232180472739</v>
+        <v>1.535631744970014</v>
       </c>
       <c r="L33">
-        <v>3.809006687736807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
-        <v>44495.375</v>
+        <v>44497.375</v>
       </c>
       <c r="B34">
-        <v>5105000</v>
+        <v>894</v>
       </c>
       <c r="C34">
-        <v>5149000</v>
+        <v>948</v>
       </c>
       <c r="D34">
-        <v>4990000</v>
+        <v>843</v>
       </c>
       <c r="E34">
-        <v>5018000</v>
+        <v>937</v>
       </c>
       <c r="F34">
-        <v>47113.38098229</v>
+        <v>10369752.6564084</v>
       </c>
       <c r="G34">
-        <v>238994829384.7341</v>
+        <v>9294338323.189381</v>
       </c>
       <c r="H34">
-        <v>79500</v>
+        <v>52.5</v>
       </c>
       <c r="I34">
-        <v>5175500</v>
+        <v>959.5</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1.065232180472739</v>
+        <v>1.535631744970014</v>
       </c>
       <c r="L34">
-        <v>3.809006687736807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
-        <v>44496.375</v>
+        <v>44498.375</v>
       </c>
       <c r="B35">
-        <v>5019000</v>
+        <v>937</v>
       </c>
       <c r="C35">
-        <v>5185000</v>
+        <v>960</v>
       </c>
       <c r="D35">
-        <v>4802000</v>
+        <v>913</v>
       </c>
       <c r="E35">
-        <v>4820000</v>
+        <v>957</v>
       </c>
       <c r="F35">
-        <v>126385.48324463</v>
+        <v>12895158.71277813</v>
       </c>
       <c r="G35">
-        <v>631220160658.3412</v>
+        <v>11989212782.93282</v>
       </c>
       <c r="H35">
-        <v>191500</v>
+        <v>23.5</v>
       </c>
       <c r="I35">
-        <v>5098500</v>
+        <v>989.5</v>
       </c>
       <c r="J35">
-        <v>0.944876091007159</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1.006512418700114</v>
+        <v>1.535631744970014</v>
       </c>
       <c r="L35">
-        <v>9.111430249012988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
-        <v>44497.375</v>
+        <v>44499.375</v>
       </c>
       <c r="B36">
-        <v>4820000</v>
+        <v>958</v>
       </c>
       <c r="C36">
-        <v>5172000</v>
+        <v>1010</v>
       </c>
       <c r="D36">
-        <v>4752000</v>
+        <v>915</v>
       </c>
       <c r="E36">
-        <v>5170000</v>
+        <v>1005</v>
       </c>
       <c r="F36">
-        <v>78326.34882504</v>
+        <v>26932138.64358411</v>
       </c>
       <c r="G36">
-        <v>389622856218.3352</v>
+        <v>25891406152.07891</v>
       </c>
       <c r="H36">
-        <v>210000</v>
+        <v>47.5</v>
       </c>
       <c r="I36">
-        <v>5011500</v>
+        <v>981.5</v>
       </c>
       <c r="J36">
-        <v>1.031127257308191</v>
+        <v>1.023442944472746</v>
       </c>
       <c r="K36">
-        <v>1.037842389740883</v>
+        <v>1.571631474697932</v>
       </c>
       <c r="L36">
-        <v>6.282318352000527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
-        <v>44498.375</v>
+        <v>44500.375</v>
       </c>
       <c r="B37">
-        <v>5170000</v>
+        <v>1005</v>
       </c>
       <c r="C37">
-        <v>5350000</v>
+        <v>1005</v>
       </c>
       <c r="D37">
-        <v>5140000</v>
+        <v>932</v>
       </c>
       <c r="E37">
-        <v>5291000</v>
+        <v>975</v>
       </c>
       <c r="F37">
-        <v>73803.82788089001</v>
+        <v>24172135.35834814</v>
       </c>
       <c r="G37">
-        <v>386834324491.0435</v>
+        <v>23065506741.72459</v>
       </c>
       <c r="H37">
-        <v>105000</v>
+        <v>36.5</v>
       </c>
       <c r="I37">
-        <v>5380000</v>
+        <v>1052.5</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1.037842389740883</v>
+        <v>1.571631474697932</v>
       </c>
       <c r="L37">
-        <v>6.282318352000527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>44499.375</v>
+        <v>44501.375</v>
       </c>
       <c r="B38">
-        <v>5292000</v>
+        <v>975</v>
       </c>
       <c r="C38">
-        <v>5305000</v>
+        <v>1005</v>
       </c>
       <c r="D38">
-        <v>5067000</v>
+        <v>931</v>
       </c>
       <c r="E38">
-        <v>5131000</v>
+        <v>962</v>
       </c>
       <c r="F38">
-        <v>52850.3713316</v>
+        <v>14343051.21552503</v>
       </c>
       <c r="G38">
-        <v>273357091145.8974</v>
+        <v>13755851313.59522</v>
       </c>
       <c r="H38">
-        <v>119000</v>
+        <v>37</v>
       </c>
       <c r="I38">
-        <v>5397000</v>
+        <v>1011.5</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>1.037842389740883</v>
+        <v>1.571631474697932</v>
       </c>
       <c r="L38">
-        <v>6.282318352000527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>44500.375</v>
+        <v>44502.375</v>
       </c>
       <c r="B39">
-        <v>5131000</v>
+        <v>963</v>
       </c>
       <c r="C39">
-        <v>5237000</v>
+        <v>976</v>
       </c>
       <c r="D39">
-        <v>4995000</v>
+        <v>937</v>
       </c>
       <c r="E39">
-        <v>5062000</v>
+        <v>973</v>
       </c>
       <c r="F39">
-        <v>55203.47158334</v>
+        <v>15947289.83237544</v>
       </c>
       <c r="G39">
-        <v>281826473024.4842</v>
+        <v>15217662834.41586</v>
       </c>
       <c r="H39">
-        <v>121000</v>
+        <v>19.5</v>
       </c>
       <c r="I39">
-        <v>5250000</v>
+        <v>1000</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1.037842389740883</v>
+        <v>1.571631474697932</v>
       </c>
       <c r="L39">
-        <v>6.282318352000527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>44501.375</v>
+        <v>44503.375</v>
       </c>
       <c r="B40">
-        <v>5068000</v>
+        <v>973</v>
       </c>
       <c r="C40">
-        <v>5200000</v>
+        <v>973</v>
       </c>
       <c r="D40">
-        <v>4950000</v>
+        <v>923</v>
       </c>
       <c r="E40">
-        <v>5134000</v>
+        <v>962</v>
       </c>
       <c r="F40">
-        <v>45890.14870039</v>
+        <v>11454300.55398266</v>
       </c>
       <c r="G40">
-        <v>233725968624.6225</v>
+        <v>10866239579.61653</v>
       </c>
       <c r="H40">
-        <v>125000</v>
+        <v>25</v>
       </c>
       <c r="I40">
-        <v>5189000</v>
+        <v>992.5</v>
       </c>
       <c r="J40">
-        <v>0.988900655232222</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1.026323019242534</v>
+        <v>1.571631474697932</v>
       </c>
       <c r="L40">
-        <v>7.322523211448538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>44502.375</v>
+        <v>44504.375</v>
       </c>
       <c r="B41">
-        <v>5134000</v>
+        <v>962</v>
       </c>
       <c r="C41">
-        <v>5399000</v>
+        <v>1405</v>
       </c>
       <c r="D41">
-        <v>5092000</v>
+        <v>961</v>
       </c>
       <c r="E41">
-        <v>5376000</v>
+        <v>1050</v>
       </c>
       <c r="F41">
-        <v>53510.60019025</v>
+        <v>471046336.5162165</v>
       </c>
       <c r="G41">
-        <v>280017813894.8364</v>
+        <v>573106691516.2474</v>
       </c>
       <c r="H41">
-        <v>153500</v>
+        <v>222</v>
       </c>
       <c r="I41">
-        <v>5259000</v>
+        <v>987</v>
       </c>
       <c r="J41">
-        <v>1.021747575584712</v>
+        <v>1.063329787234043</v>
       </c>
       <c r="K41">
-        <v>1.048643056677841</v>
+        <v>1.671162561600877</v>
       </c>
       <c r="L41">
-        <v>5.30701277998911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>44503.375</v>
+        <v>44505.375</v>
       </c>
       <c r="B42">
-        <v>5376000</v>
+        <v>1050</v>
       </c>
       <c r="C42">
-        <v>5499000</v>
+        <v>1050</v>
       </c>
       <c r="D42">
-        <v>5260000</v>
+        <v>986</v>
       </c>
       <c r="E42">
-        <v>5461000</v>
+        <v>1005</v>
       </c>
       <c r="F42">
-        <v>64607.08775705</v>
+        <v>33327921.4090547</v>
       </c>
       <c r="G42">
-        <v>347528201365.3987</v>
+        <v>33462451432.80519</v>
       </c>
       <c r="H42">
-        <v>119500</v>
+        <v>32</v>
       </c>
       <c r="I42">
-        <v>5529500</v>
+        <v>1272</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>1.048643056677841</v>
+        <v>1.671162561600877</v>
       </c>
       <c r="L42">
-        <v>5.30701277998911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>44504.375</v>
+        <v>44506.375</v>
       </c>
       <c r="B43">
-        <v>5460000</v>
+        <v>1005</v>
       </c>
       <c r="C43">
-        <v>5487000</v>
+        <v>1005</v>
       </c>
       <c r="D43">
-        <v>5372000</v>
+        <v>970</v>
       </c>
       <c r="E43">
-        <v>5450000</v>
+        <v>991</v>
       </c>
       <c r="F43">
-        <v>37988.50867991</v>
+        <v>10955114.13864133</v>
       </c>
       <c r="G43">
-        <v>205979407870.6675</v>
+        <v>10771323059.02853</v>
       </c>
       <c r="H43">
-        <v>57500</v>
+        <v>17.5</v>
       </c>
       <c r="I43">
-        <v>5579500</v>
+        <v>1037</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1.048643056677841</v>
+        <v>1.671162561600877</v>
       </c>
       <c r="L43">
-        <v>5.30701277998911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>44505.375</v>
+        <v>44507.375</v>
       </c>
       <c r="B44">
-        <v>5450000</v>
+        <v>991</v>
       </c>
       <c r="C44">
-        <v>5485000</v>
+        <v>1005</v>
       </c>
       <c r="D44">
-        <v>5396000</v>
+        <v>988</v>
       </c>
       <c r="E44">
-        <v>5440000</v>
+        <v>996</v>
       </c>
       <c r="F44">
-        <v>27849.88927434</v>
+        <v>8265157.02338478</v>
       </c>
       <c r="G44">
-        <v>151629484550.508</v>
+        <v>8224063504.800534</v>
       </c>
       <c r="H44">
-        <v>44500</v>
+        <v>8.5</v>
       </c>
       <c r="I44">
-        <v>5507500</v>
+        <v>1008.5</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>1.048643056677841</v>
+        <v>1.671162561600877</v>
       </c>
       <c r="L44">
-        <v>5.30701277998911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>44506.375</v>
+        <v>44508.375</v>
       </c>
       <c r="B45">
-        <v>5444000</v>
+        <v>997</v>
       </c>
       <c r="C45">
-        <v>5490000</v>
+        <v>997</v>
       </c>
       <c r="D45">
-        <v>5341000</v>
+        <v>966</v>
       </c>
       <c r="E45">
-        <v>5476000</v>
+        <v>996</v>
       </c>
       <c r="F45">
-        <v>29608.67182601</v>
+        <v>10151592.35147146</v>
       </c>
       <c r="G45">
-        <v>160319073043.9024</v>
+        <v>9928543784.475191</v>
       </c>
       <c r="H45">
-        <v>74500</v>
+        <v>15.5</v>
       </c>
       <c r="I45">
-        <v>5488500</v>
+        <v>1005.5</v>
       </c>
       <c r="J45">
-        <v>0.9972225107041998</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1.045730461812803</v>
+        <v>1.671162561600877</v>
       </c>
       <c r="L45">
-        <v>5.570021538380037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
-        <v>44507.375</v>
+        <v>44509.375</v>
       </c>
       <c r="B46">
-        <v>5474000</v>
+        <v>996</v>
       </c>
       <c r="C46">
-        <v>5620000</v>
+        <v>996</v>
       </c>
       <c r="D46">
-        <v>5463000</v>
+        <v>971</v>
       </c>
       <c r="E46">
-        <v>5587000</v>
+        <v>981</v>
       </c>
       <c r="F46">
-        <v>31909.41698857</v>
+        <v>7019199.75535774</v>
       </c>
       <c r="G46">
-        <v>177319886283.7179</v>
+        <v>6879971707.499956</v>
       </c>
       <c r="H46">
-        <v>78500</v>
+        <v>12.5</v>
       </c>
       <c r="I46">
-        <v>5548500</v>
+        <v>1011.5</v>
       </c>
       <c r="J46">
-        <v>1.00643881229161</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1.052463723964035</v>
+        <v>1.671162561600877</v>
       </c>
       <c r="L46">
-        <v>4.962004632364851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
-        <v>44508.375</v>
+        <v>44510.375</v>
       </c>
       <c r="B47">
-        <v>5587000</v>
+        <v>981</v>
       </c>
       <c r="C47">
-        <v>5813000</v>
+        <v>1025</v>
       </c>
       <c r="D47">
-        <v>5584000</v>
+        <v>970</v>
       </c>
       <c r="E47">
-        <v>5805000</v>
+        <v>985</v>
       </c>
       <c r="F47">
-        <v>46591.1720227</v>
+        <v>15469582.10416981</v>
       </c>
       <c r="G47">
-        <v>266979502141.6465</v>
+        <v>15319764512.0137</v>
       </c>
       <c r="H47">
-        <v>114500</v>
+        <v>27.5</v>
       </c>
       <c r="I47">
-        <v>5665500</v>
+        <v>993.5</v>
       </c>
       <c r="J47">
-        <v>1.02412271644162</v>
+        <v>0.9909443885254152</v>
       </c>
       <c r="K47">
-        <v>1.077852007942311</v>
+        <v>1.656029162732147</v>
       </c>
       <c r="L47">
-        <v>2.669430018931341</v>
+        <v>0.905561147458481</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2">
-        <v>44509.375</v>
+        <v>44511.375</v>
       </c>
       <c r="B48">
-        <v>5805000</v>
+        <v>986</v>
       </c>
       <c r="C48">
-        <v>5827000</v>
+        <v>1015</v>
       </c>
       <c r="D48">
-        <v>5670000</v>
+        <v>968</v>
       </c>
       <c r="E48">
-        <v>5713000</v>
+        <v>1005</v>
       </c>
       <c r="F48">
-        <v>41428.79268004</v>
+        <v>13105491.37234491</v>
       </c>
       <c r="G48">
-        <v>238691328217.7024</v>
+        <v>12975396691.50539</v>
       </c>
       <c r="H48">
-        <v>78500</v>
+        <v>23.5</v>
       </c>
       <c r="I48">
-        <v>5919500</v>
+        <v>1013.5</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0.9911132215096202</v>
       </c>
       <c r="K48">
-        <v>1.077852007942311</v>
+        <v>1.641312398389337</v>
       </c>
       <c r="L48">
-        <v>2.669430018931341</v>
+        <v>1.7861914751695</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2">
-        <v>44510.375</v>
+        <v>44512.375</v>
       </c>
       <c r="B49">
-        <v>5709000</v>
+        <v>1005</v>
       </c>
       <c r="C49">
-        <v>5820000</v>
+        <v>1005</v>
       </c>
       <c r="D49">
-        <v>5575000</v>
+        <v>970</v>
       </c>
       <c r="E49">
-        <v>5689000</v>
+        <v>987</v>
       </c>
       <c r="F49">
-        <v>53745.66221832</v>
+        <v>8320440.92476996</v>
       </c>
       <c r="G49">
-        <v>305465774047.5657</v>
+        <v>8169917829.332928</v>
       </c>
       <c r="H49">
-        <v>122500</v>
+        <v>17.5</v>
       </c>
       <c r="I49">
-        <v>5787500</v>
+        <v>1028.5</v>
       </c>
       <c r="J49">
-        <v>0.9824805615550757</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>1.058968646036428</v>
+        <v>1.641312398389337</v>
       </c>
       <c r="L49">
-        <v>4.374606948524078</v>
+        <v>1.7861914751695</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2">
-        <v>44511.375</v>
+        <v>44513.375</v>
       </c>
       <c r="B50">
-        <v>5689000</v>
+        <v>987</v>
       </c>
       <c r="C50">
-        <v>5790000</v>
+        <v>1025</v>
       </c>
       <c r="D50">
-        <v>5601000</v>
+        <v>975</v>
       </c>
       <c r="E50">
-        <v>5749000</v>
+        <v>1025</v>
       </c>
       <c r="F50">
-        <v>31934.50541021</v>
+        <v>9160893.86860905</v>
       </c>
       <c r="G50">
-        <v>182119911755.1303</v>
+        <v>9114764050.496841</v>
       </c>
       <c r="H50">
-        <v>94500</v>
+        <v>25</v>
       </c>
       <c r="I50">
-        <v>5811500</v>
+        <v>1004.5</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>1.019908163265306</v>
       </c>
       <c r="K50">
-        <v>1.058968646036428</v>
+        <v>1.673987913585844</v>
       </c>
       <c r="L50">
-        <v>4.374606948524078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2">
-        <v>44512.375</v>
+        <v>44514.375</v>
       </c>
       <c r="B51">
-        <v>5746000</v>
+        <v>1025</v>
       </c>
       <c r="C51">
-        <v>5811000</v>
+        <v>1045</v>
       </c>
       <c r="D51">
-        <v>5551000</v>
+        <v>994</v>
       </c>
       <c r="E51">
-        <v>5684000</v>
+        <v>1040</v>
       </c>
       <c r="F51">
-        <v>40976.82100558</v>
+        <v>9748514.88884146</v>
       </c>
       <c r="G51">
-        <v>232474640330.1427</v>
+        <v>9890630728.898582</v>
       </c>
       <c r="H51">
-        <v>130000</v>
+        <v>25.5</v>
       </c>
       <c r="I51">
-        <v>5840500</v>
+        <v>1050</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <v>1.058968646036428</v>
+        <v>1.673987913585844</v>
       </c>
       <c r="L51">
-        <v>4.374606948524078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2">
-        <v>44513.375</v>
+        <v>44515.375</v>
       </c>
       <c r="B52">
-        <v>5685000</v>
+        <v>1045</v>
       </c>
       <c r="C52">
-        <v>5732000</v>
+        <v>1270</v>
       </c>
       <c r="D52">
-        <v>5582000</v>
+        <v>1015</v>
       </c>
       <c r="E52">
-        <v>5622000</v>
+        <v>1085</v>
       </c>
       <c r="F52">
-        <v>24371.54869301</v>
+        <v>124205631.1271212</v>
       </c>
       <c r="G52">
-        <v>137596291422.0687</v>
+        <v>142159037136.0524</v>
       </c>
       <c r="H52">
-        <v>75000</v>
+        <v>127.5</v>
       </c>
       <c r="I52">
-        <v>5815000</v>
+        <v>1070.5</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>1.013045072396077</v>
       </c>
       <c r="K52">
-        <v>1.058968646036428</v>
+        <v>1.695825207108728</v>
       </c>
       <c r="L52">
-        <v>4.374606948524078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2">
-        <v>44514.375</v>
+        <v>44516.375</v>
       </c>
       <c r="B53">
-        <v>5622000</v>
+        <v>1085</v>
       </c>
       <c r="C53">
-        <v>5681000</v>
+        <v>1610</v>
       </c>
       <c r="D53">
-        <v>5504000</v>
+        <v>1060</v>
       </c>
       <c r="E53">
-        <v>5609000</v>
+        <v>1410</v>
       </c>
       <c r="F53">
-        <v>26096.29283698</v>
+        <v>471665131.0727315</v>
       </c>
       <c r="G53">
-        <v>146072710246.8613</v>
+        <v>641826458044.5508</v>
       </c>
       <c r="H53">
-        <v>88500</v>
+        <v>275</v>
       </c>
       <c r="I53">
-        <v>5697000</v>
+        <v>1212.5</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>1.162386597938144</v>
       </c>
       <c r="K53">
-        <v>1.058968646036428</v>
+        <v>1.971204493188864</v>
       </c>
       <c r="L53">
-        <v>4.374606948524078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2">
-        <v>44515.375</v>
+        <v>44517.375</v>
       </c>
       <c r="B54">
-        <v>5609000</v>
+        <v>1405</v>
       </c>
       <c r="C54">
-        <v>5748000</v>
+        <v>1475</v>
       </c>
       <c r="D54">
-        <v>5540000</v>
+        <v>1190</v>
       </c>
       <c r="E54">
-        <v>5563000</v>
+        <v>1350</v>
       </c>
       <c r="F54">
-        <v>39668.68979512</v>
+        <v>115524467.143611</v>
       </c>
       <c r="G54">
-        <v>224279067150.7272</v>
+        <v>150855159952.8419</v>
       </c>
       <c r="H54">
-        <v>104000</v>
+        <v>142.5</v>
       </c>
       <c r="I54">
-        <v>5697500</v>
+        <v>1680</v>
       </c>
       <c r="J54">
-        <v>0.9758931548924967</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>1.033440252912725</v>
+        <v>1.971204493188864</v>
       </c>
       <c r="L54">
-        <v>6.679833487160135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2">
-        <v>44516.375</v>
+        <v>44518.375</v>
       </c>
       <c r="B55">
-        <v>5563000</v>
+        <v>1355</v>
       </c>
       <c r="C55">
-        <v>5568000</v>
+        <v>1380</v>
       </c>
       <c r="D55">
-        <v>5133000</v>
+        <v>1070</v>
       </c>
       <c r="E55">
-        <v>5179000</v>
+        <v>1115</v>
       </c>
       <c r="F55">
-        <v>99784.15517403001</v>
+        <v>49033986.89709716</v>
       </c>
       <c r="G55">
-        <v>529216931358.1021</v>
+        <v>60426109451.58766</v>
       </c>
       <c r="H55">
-        <v>217500</v>
+        <v>155</v>
       </c>
       <c r="I55">
-        <v>5667000</v>
+        <v>1497.5</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1.033440252912725</v>
+        <v>1.971204493188864</v>
       </c>
       <c r="L55">
-        <v>6.679833487160135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2">
-        <v>44517.375</v>
+        <v>44519.375</v>
       </c>
       <c r="B56">
-        <v>5181000</v>
+        <v>1115</v>
       </c>
       <c r="C56">
-        <v>5273000</v>
+        <v>1340</v>
       </c>
       <c r="D56">
-        <v>5000000</v>
+        <v>1110</v>
       </c>
       <c r="E56">
-        <v>5253000</v>
+        <v>1255</v>
       </c>
       <c r="F56">
-        <v>79363.56576411</v>
+        <v>56110488.1134255</v>
       </c>
       <c r="G56">
-        <v>407318422621.3735</v>
+        <v>69611107556.21954</v>
       </c>
       <c r="H56">
-        <v>136500</v>
+        <v>115</v>
       </c>
       <c r="I56">
-        <v>5398500</v>
+        <v>1270</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0.9876889763779528</v>
       </c>
       <c r="K56">
-        <v>1.033440252912725</v>
+        <v>1.94693694810933</v>
       </c>
       <c r="L56">
-        <v>6.679833487160135</v>
+        <v>1.231102362204713</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
-        <v>44518.375</v>
+        <v>44520.375</v>
       </c>
       <c r="B57">
-        <v>5253000</v>
+        <v>1255</v>
       </c>
       <c r="C57">
-        <v>5326000</v>
+        <v>1375</v>
       </c>
       <c r="D57">
-        <v>4903000</v>
+        <v>1240</v>
       </c>
       <c r="E57">
-        <v>4953000</v>
+        <v>1315</v>
       </c>
       <c r="F57">
-        <v>83571.43991253999</v>
+        <v>31903997.20844074</v>
       </c>
       <c r="G57">
-        <v>429798828461.8202</v>
+        <v>41961608183.63889</v>
       </c>
       <c r="H57">
-        <v>211500</v>
+        <v>67.5</v>
       </c>
       <c r="I57">
-        <v>5389500</v>
+        <v>1370</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0.9593540145985402</v>
       </c>
       <c r="K57">
-        <v>1.033440252912725</v>
+        <v>1.867801777338916</v>
       </c>
       <c r="L57">
-        <v>6.679833487160135</v>
+        <v>5.245661533708812</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2">
-        <v>44519.375</v>
+        <v>44521.375</v>
       </c>
       <c r="B58">
-        <v>4953000</v>
+        <v>1315</v>
       </c>
       <c r="C58">
-        <v>5347000</v>
+        <v>1600</v>
       </c>
       <c r="D58">
-        <v>4921000</v>
+        <v>1305</v>
       </c>
       <c r="E58">
-        <v>5311000</v>
+        <v>1415</v>
       </c>
       <c r="F58">
-        <v>62029.90456799</v>
+        <v>130621375.5370625</v>
       </c>
       <c r="G58">
-        <v>317537468782.7933</v>
+        <v>193003602307.0819</v>
       </c>
       <c r="H58">
-        <v>213000</v>
+        <v>147.5</v>
       </c>
       <c r="I58">
-        <v>5164500</v>
+        <v>1382.5</v>
       </c>
       <c r="J58">
-        <v>1.027866734437022</v>
+        <v>1.023008137432188</v>
       </c>
       <c r="K58">
-        <v>1.062238857997173</v>
+        <v>1.910776417328015</v>
       </c>
       <c r="L58">
-        <v>4.079305189328153</v>
+        <v>3.06554069198031</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2">
-        <v>44520.375</v>
+        <v>44522.375</v>
       </c>
       <c r="B59">
-        <v>5311000</v>
+        <v>1415</v>
       </c>
       <c r="C59">
-        <v>5484000</v>
+        <v>1440</v>
       </c>
       <c r="D59">
-        <v>5230000</v>
+        <v>1290</v>
       </c>
       <c r="E59">
-        <v>5450000</v>
+        <v>1375</v>
       </c>
       <c r="F59">
-        <v>38367.83900303</v>
+        <v>22536941.16043941</v>
       </c>
       <c r="G59">
-        <v>205080252300.8211</v>
+        <v>30320846203.73705</v>
       </c>
       <c r="H59">
-        <v>127000</v>
+        <v>75</v>
       </c>
       <c r="I59">
-        <v>5524000</v>
+        <v>1562.5</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>1.062238857997173</v>
+        <v>1.910776417328015</v>
       </c>
       <c r="L59">
-        <v>4.079305189328153</v>
+        <v>3.06554069198031</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2">
-        <v>44521.375</v>
+        <v>44523.375</v>
       </c>
       <c r="B60">
-        <v>5450000</v>
+        <v>1375</v>
       </c>
       <c r="C60">
-        <v>5472000</v>
+        <v>1575</v>
       </c>
       <c r="D60">
-        <v>5292000</v>
+        <v>1330</v>
       </c>
       <c r="E60">
-        <v>5303000</v>
+        <v>1565</v>
       </c>
       <c r="F60">
-        <v>30403.79133039</v>
+        <v>58973821.99284354</v>
       </c>
       <c r="G60">
-        <v>163970393624.7728</v>
+        <v>87686170278.61148</v>
       </c>
       <c r="H60">
-        <v>90000</v>
+        <v>122.5</v>
       </c>
       <c r="I60">
-        <v>5577000</v>
+        <v>1450</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>1.078810344827586</v>
       </c>
       <c r="K60">
-        <v>1.062238857997173</v>
+        <v>2.061365365666056</v>
       </c>
       <c r="L60">
-        <v>4.079305189328153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2">
-        <v>44522.375</v>
+        <v>44524.375</v>
       </c>
       <c r="B61">
-        <v>5303000</v>
+        <v>1565</v>
       </c>
       <c r="C61">
-        <v>5319000</v>
+        <v>1930</v>
       </c>
       <c r="D61">
-        <v>5160000</v>
+        <v>1535</v>
       </c>
       <c r="E61">
-        <v>5251000</v>
+        <v>1815</v>
       </c>
       <c r="F61">
-        <v>22566.62784537</v>
+        <v>78321376.72703218</v>
       </c>
       <c r="G61">
-        <v>117858457388.1369</v>
+        <v>137167504381.0769</v>
       </c>
       <c r="H61">
-        <v>79500</v>
+        <v>197.5</v>
       </c>
       <c r="I61">
-        <v>5393000</v>
+        <v>1687.5</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>1.075055555555556</v>
       </c>
       <c r="K61">
-        <v>1.062238857997173</v>
+        <v>2.216082288389102</v>
       </c>
       <c r="L61">
-        <v>4.079305189328153</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dd.xlsx
+++ b/dd.xlsx
@@ -453,28 +453,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>44465.375</v>
+        <v>44466.375</v>
       </c>
       <c r="B2">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="C2">
-        <v>761</v>
+        <v>718</v>
       </c>
       <c r="D2">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E2">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F2">
-        <v>10279899.4249491</v>
+        <v>4651484.53330204</v>
       </c>
       <c r="G2">
-        <v>7370393883.774788</v>
+        <v>3262813766.044321</v>
       </c>
       <c r="H2">
-        <v>36.5</v>
+        <v>18.5</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -488,31 +488,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>44466.375</v>
+        <v>44467.375</v>
       </c>
       <c r="B3">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="C3">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="D3">
-        <v>681</v>
+        <v>627</v>
       </c>
       <c r="E3">
-        <v>685</v>
+        <v>630</v>
       </c>
       <c r="F3">
-        <v>4651484.53330204</v>
+        <v>5722900.79232736</v>
       </c>
       <c r="G3">
-        <v>3262813766.044321</v>
+        <v>3768667364.17873</v>
       </c>
       <c r="H3">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>748.5</v>
+        <v>704.5</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -526,31 +526,31 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>44467.375</v>
+        <v>44468.375</v>
       </c>
       <c r="B4">
-        <v>686</v>
+        <v>630</v>
       </c>
       <c r="C4">
-        <v>703</v>
+        <v>664</v>
       </c>
       <c r="D4">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="E4">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F4">
-        <v>5722900.79232736</v>
+        <v>5589615.1501408</v>
       </c>
       <c r="G4">
-        <v>3768667364.17873</v>
+        <v>3561647372.146731</v>
       </c>
       <c r="H4">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I4">
-        <v>704.5</v>
+        <v>668</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -564,37 +564,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>44468.375</v>
+        <v>44469.375</v>
       </c>
       <c r="B5">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C5">
-        <v>664</v>
+        <v>800</v>
       </c>
       <c r="D5">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="E5">
-        <v>632</v>
+        <v>727</v>
       </c>
       <c r="F5">
-        <v>5589615.1501408</v>
+        <v>154973176.8535353</v>
       </c>
       <c r="G5">
-        <v>3561647372.146731</v>
+        <v>114013132678.0545</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I5">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>1.096030920060332</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>1.096030920060332</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -602,34 +602,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>44469.375</v>
+        <v>44470.375</v>
       </c>
       <c r="B6">
-        <v>635</v>
+        <v>729</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D6">
-        <v>632</v>
+        <v>724</v>
       </c>
       <c r="E6">
-        <v>727</v>
+        <v>776</v>
       </c>
       <c r="F6">
-        <v>154973176.8535353</v>
+        <v>59144610.20895799</v>
       </c>
       <c r="G6">
-        <v>114013132678.0545</v>
+        <v>45496315204.20885</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>663</v>
+        <v>813</v>
       </c>
       <c r="J6">
-        <v>1.096030920060332</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1.096030920060332</v>
@@ -640,31 +640,31 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>44470.375</v>
+        <v>44471.375</v>
       </c>
       <c r="B7">
-        <v>729</v>
+        <v>776</v>
       </c>
       <c r="C7">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="D7">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="E7">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F7">
-        <v>59144610.20895799</v>
+        <v>13205560.73750965</v>
       </c>
       <c r="G7">
-        <v>45496315204.20885</v>
+        <v>10214242592.2381</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="I7">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -678,37 +678,37 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>44471.375</v>
+        <v>44472.375</v>
       </c>
       <c r="B8">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="C8">
-        <v>792</v>
+        <v>871</v>
       </c>
       <c r="D8">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="E8">
-        <v>785</v>
+        <v>830</v>
       </c>
       <c r="F8">
-        <v>13205560.73750965</v>
+        <v>61254515.97432002</v>
       </c>
       <c r="G8">
-        <v>10214242592.2381</v>
+        <v>50926660698.47028</v>
       </c>
       <c r="H8">
-        <v>19.5</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>816</v>
+        <v>804.5</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>1.031196706028589</v>
       </c>
       <c r="K8">
-        <v>1.096030920060332</v>
+        <v>1.130223474471698</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -716,72 +716,72 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>44472.375</v>
+        <v>44473.375</v>
       </c>
       <c r="B9">
-        <v>785</v>
+        <v>829</v>
       </c>
       <c r="C9">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="D9">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="E9">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="F9">
-        <v>61254515.97432002</v>
+        <v>69969408.49208619</v>
       </c>
       <c r="G9">
-        <v>50926660698.47028</v>
+        <v>60212689402.82496</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>58.5</v>
       </c>
       <c r="I9">
-        <v>804.5</v>
+        <v>872</v>
       </c>
       <c r="J9">
-        <v>1.031196706028589</v>
+        <v>0.9685366972477065</v>
       </c>
       <c r="K9">
-        <v>1.130223474471698</v>
+        <v>1.094662911116646</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.146330275229339</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>44473.375</v>
+        <v>44474.375</v>
       </c>
       <c r="B10">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="C10">
-        <v>913</v>
+        <v>856</v>
       </c>
       <c r="D10">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="E10">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F10">
-        <v>69969408.49208619</v>
+        <v>27877617.83885367</v>
       </c>
       <c r="G10">
-        <v>60212689402.82496</v>
+        <v>23001098895.35251</v>
       </c>
       <c r="H10">
-        <v>58.5</v>
+        <v>26.5</v>
       </c>
       <c r="I10">
-        <v>872</v>
+        <v>904.5</v>
       </c>
       <c r="J10">
-        <v>0.9685366972477065</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1.094662911116646</v>
@@ -792,72 +792,72 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>44474.375</v>
+        <v>44475.375</v>
       </c>
       <c r="B11">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="C11">
-        <v>856</v>
+        <v>1950</v>
       </c>
       <c r="D11">
-        <v>803</v>
+        <v>849</v>
       </c>
       <c r="E11">
-        <v>849</v>
+        <v>1190</v>
       </c>
       <c r="F11">
-        <v>27877617.83885367</v>
+        <v>1168550284.245078</v>
       </c>
       <c r="G11">
-        <v>23001098895.35251</v>
+        <v>1656024791557.067</v>
       </c>
       <c r="H11">
-        <v>26.5</v>
+        <v>550.5</v>
       </c>
       <c r="I11">
-        <v>904.5</v>
+        <v>886.5</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>1.341857586012408</v>
       </c>
       <c r="K11">
-        <v>1.094662911116646</v>
+        <v>1.468881731408299</v>
       </c>
       <c r="L11">
-        <v>3.146330275229339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>44475.375</v>
+        <v>44476.375</v>
       </c>
       <c r="B12">
-        <v>860</v>
+        <v>1190</v>
       </c>
       <c r="C12">
-        <v>1950</v>
+        <v>1325</v>
       </c>
       <c r="D12">
-        <v>849</v>
+        <v>1100</v>
       </c>
       <c r="E12">
-        <v>1190</v>
+        <v>1125</v>
       </c>
       <c r="F12">
-        <v>1168550284.245078</v>
+        <v>130885529.9547264</v>
       </c>
       <c r="G12">
-        <v>1656024791557.067</v>
+        <v>158744810567.8823</v>
       </c>
       <c r="H12">
-        <v>550.5</v>
+        <v>112.5</v>
       </c>
       <c r="I12">
-        <v>886.5</v>
+        <v>1740.5</v>
       </c>
       <c r="J12">
-        <v>1.341857586012408</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1.468881731408299</v>
@@ -868,31 +868,31 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>44476.375</v>
+        <v>44477.375</v>
       </c>
       <c r="B13">
-        <v>1190</v>
+        <v>1120</v>
       </c>
       <c r="C13">
-        <v>1325</v>
+        <v>1125</v>
       </c>
       <c r="D13">
-        <v>1100</v>
+        <v>997</v>
       </c>
       <c r="E13">
-        <v>1125</v>
+        <v>1060</v>
       </c>
       <c r="F13">
-        <v>130885529.9547264</v>
+        <v>50305782.24305519</v>
       </c>
       <c r="G13">
-        <v>158744810567.8823</v>
+        <v>52668839095.45412</v>
       </c>
       <c r="H13">
-        <v>112.5</v>
+        <v>64</v>
       </c>
       <c r="I13">
-        <v>1740.5</v>
+        <v>1232.5</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -906,31 +906,31 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
-        <v>44477.375</v>
+        <v>44478.375</v>
       </c>
       <c r="B14">
-        <v>1120</v>
+        <v>1065</v>
       </c>
       <c r="C14">
-        <v>1125</v>
+        <v>1095</v>
       </c>
       <c r="D14">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="E14">
-        <v>1060</v>
+        <v>1005</v>
       </c>
       <c r="F14">
-        <v>50305782.24305519</v>
+        <v>29406027.79970104</v>
       </c>
       <c r="G14">
-        <v>52668839095.45412</v>
+        <v>30434244461.28908</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>58.5</v>
       </c>
       <c r="I14">
-        <v>1232.5</v>
+        <v>1129</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -944,72 +944,72 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>44478.375</v>
+        <v>44479.375</v>
       </c>
       <c r="B15">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="C15">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="D15">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E15">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="F15">
-        <v>29406027.79970104</v>
+        <v>14221818.91374286</v>
       </c>
       <c r="G15">
-        <v>30434244461.28908</v>
+        <v>14405687214.90483</v>
       </c>
       <c r="H15">
-        <v>58.5</v>
+        <v>45</v>
       </c>
       <c r="I15">
-        <v>1129</v>
+        <v>1058.5</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.9725751062824752</v>
       </c>
       <c r="K15">
-        <v>1.468881731408299</v>
+        <v>1.428597806040812</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.742489371752471</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>44479.375</v>
+        <v>44480.375</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="C16">
         <v>1070</v>
       </c>
       <c r="D16">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="E16">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="F16">
-        <v>14221818.91374286</v>
+        <v>10336021.8381474</v>
       </c>
       <c r="G16">
-        <v>14405687214.90483</v>
+        <v>10466446871.25758</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>41.5</v>
       </c>
       <c r="I16">
-        <v>1058.5</v>
+        <v>1080</v>
       </c>
       <c r="J16">
-        <v>0.9725751062824752</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1.428597806040812</v>
@@ -1020,31 +1020,31 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>44480.375</v>
+        <v>44481.375</v>
       </c>
       <c r="B17">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="C17">
-        <v>1070</v>
+        <v>1015</v>
       </c>
       <c r="D17">
-        <v>987</v>
+        <v>921</v>
       </c>
       <c r="E17">
-        <v>1015</v>
+        <v>978</v>
       </c>
       <c r="F17">
-        <v>10336021.8381474</v>
+        <v>9228355.585397709</v>
       </c>
       <c r="G17">
-        <v>10466446871.25758</v>
+        <v>8862410065.149807</v>
       </c>
       <c r="H17">
-        <v>41.5</v>
+        <v>47</v>
       </c>
       <c r="I17">
-        <v>1080</v>
+        <v>1056.5</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1058,72 +1058,72 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
-        <v>44481.375</v>
+        <v>44482.375</v>
       </c>
       <c r="B18">
-        <v>1015</v>
+        <v>978</v>
       </c>
       <c r="C18">
-        <v>1015</v>
+        <v>1090</v>
       </c>
       <c r="D18">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="E18">
-        <v>978</v>
+        <v>1070</v>
       </c>
       <c r="F18">
-        <v>9228355.585397709</v>
+        <v>44705329.40369278</v>
       </c>
       <c r="G18">
-        <v>8862410065.149807</v>
+        <v>46522733728.72215</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>63.5</v>
       </c>
       <c r="I18">
-        <v>1056.5</v>
+        <v>1025</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>1.04340243902439</v>
       </c>
       <c r="K18">
-        <v>1.428597806040812</v>
+        <v>1.490602435207877</v>
       </c>
       <c r="L18">
-        <v>2.742489371752471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2">
-        <v>44482.375</v>
+        <v>44483.375</v>
       </c>
       <c r="B19">
-        <v>978</v>
+        <v>1075</v>
       </c>
       <c r="C19">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="D19">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="E19">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="F19">
-        <v>44705329.40369278</v>
+        <v>14187141.40620085</v>
       </c>
       <c r="G19">
-        <v>46522733728.72215</v>
+        <v>14848318539.69313</v>
       </c>
       <c r="H19">
-        <v>63.5</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>1025</v>
+        <v>1138.5</v>
       </c>
       <c r="J19">
-        <v>1.04340243902439</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>1.490602435207877</v>
@@ -1134,31 +1134,31 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2">
-        <v>44483.375</v>
+        <v>44484.375</v>
       </c>
       <c r="B20">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="C20">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D20">
-        <v>1025</v>
+        <v>921</v>
       </c>
       <c r="E20">
-        <v>1055</v>
+        <v>953</v>
       </c>
       <c r="F20">
-        <v>14187141.40620085</v>
+        <v>22571339.89274056</v>
       </c>
       <c r="G20">
-        <v>14848318539.69313</v>
+        <v>22182366591.48872</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>74.5</v>
       </c>
       <c r="I20">
-        <v>1138.5</v>
+        <v>1085</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1172,31 +1172,31 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>44484.375</v>
+        <v>44485.375</v>
       </c>
       <c r="B21">
-        <v>1060</v>
+        <v>953</v>
       </c>
       <c r="C21">
-        <v>1070</v>
+        <v>962</v>
       </c>
       <c r="D21">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="E21">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F21">
-        <v>22571339.89274056</v>
+        <v>6297045.77358608</v>
       </c>
       <c r="G21">
-        <v>22182366591.48872</v>
+        <v>5952174419.53791</v>
       </c>
       <c r="H21">
-        <v>74.5</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>1085</v>
+        <v>1027.5</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1210,37 +1210,37 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2">
-        <v>44485.375</v>
+        <v>44486.375</v>
       </c>
       <c r="B22">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C22">
-        <v>962</v>
+        <v>1015</v>
       </c>
       <c r="D22">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="E22">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="F22">
-        <v>6297045.77358608</v>
+        <v>36615075.31094462</v>
       </c>
       <c r="G22">
-        <v>5952174419.53791</v>
+        <v>35780151197.38425</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I22">
-        <v>1027.5</v>
+        <v>965</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>1.002608808290155</v>
       </c>
       <c r="K22">
-        <v>1.490602435207877</v>
+        <v>1.494491131198173</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1248,34 +1248,34 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2">
-        <v>44486.375</v>
+        <v>44487.375</v>
       </c>
       <c r="B23">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="C23">
-        <v>1015</v>
+        <v>972</v>
       </c>
       <c r="D23">
-        <v>935</v>
+        <v>905</v>
       </c>
       <c r="E23">
-        <v>968</v>
+        <v>930</v>
       </c>
       <c r="F23">
-        <v>36615075.31094462</v>
+        <v>7875918.86615946</v>
       </c>
       <c r="G23">
-        <v>35780151197.38425</v>
+        <v>7322690370.431216</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>33.5</v>
       </c>
       <c r="I23">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="J23">
-        <v>1.002608808290155</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>1.494491131198173</v>
@@ -1286,72 +1286,72 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2">
-        <v>44487.375</v>
+        <v>44488.375</v>
       </c>
       <c r="B24">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="C24">
-        <v>972</v>
+        <v>1030</v>
       </c>
       <c r="D24">
-        <v>905</v>
+        <v>926</v>
       </c>
       <c r="E24">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="F24">
-        <v>7875918.86615946</v>
+        <v>58224212.67173429</v>
       </c>
       <c r="G24">
-        <v>7322690370.431216</v>
+        <v>56600012861.90912</v>
       </c>
       <c r="H24">
-        <v>33.5</v>
+        <v>52</v>
       </c>
       <c r="I24">
-        <v>1007</v>
+        <v>963.5</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.9782234042553192</v>
       </c>
       <c r="K24">
-        <v>1.494491131198173</v>
+        <v>1.461946201990059</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.17765957446809</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2">
-        <v>44488.375</v>
+        <v>44489.375</v>
       </c>
       <c r="B25">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="C25">
-        <v>1030</v>
+        <v>946</v>
       </c>
       <c r="D25">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="E25">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F25">
-        <v>58224212.67173429</v>
+        <v>9758172.529460739</v>
       </c>
       <c r="G25">
-        <v>56600012861.90912</v>
+        <v>9042958404.915754</v>
       </c>
       <c r="H25">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>963.5</v>
+        <v>995</v>
       </c>
       <c r="J25">
-        <v>0.9782234042553192</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1.461946201990059</v>
@@ -1362,31 +1362,31 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2">
-        <v>44489.375</v>
+        <v>44490.375</v>
       </c>
       <c r="B26">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C26">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D26">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E26">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="F26">
-        <v>9758172.529460739</v>
+        <v>9274871.140781701</v>
       </c>
       <c r="G26">
-        <v>9042958404.915754</v>
+        <v>8556449305.21456</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="I26">
-        <v>995</v>
+        <v>955</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1400,72 +1400,72 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2">
-        <v>44490.375</v>
+        <v>44491.375</v>
       </c>
       <c r="B27">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C27">
-        <v>941</v>
+        <v>997</v>
       </c>
       <c r="D27">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="E27">
-        <v>922</v>
+        <v>957</v>
       </c>
       <c r="F27">
-        <v>9274871.140781701</v>
+        <v>39294562.66193091</v>
       </c>
       <c r="G27">
-        <v>8556449305.21456</v>
+        <v>37316052540.16325</v>
       </c>
       <c r="H27">
-        <v>17.5</v>
+        <v>40.5</v>
       </c>
       <c r="I27">
-        <v>955</v>
+        <v>951.5</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>1.005280346820809</v>
       </c>
       <c r="K27">
-        <v>1.461946201990059</v>
+        <v>1.469665784969932</v>
       </c>
       <c r="L27">
-        <v>2.17765957446809</v>
+        <v>1.661123690197995</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2">
-        <v>44491.375</v>
+        <v>44492.375</v>
       </c>
       <c r="B28">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="C28">
-        <v>997</v>
+        <v>964</v>
       </c>
       <c r="D28">
-        <v>916</v>
+        <v>933</v>
       </c>
       <c r="E28">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="F28">
-        <v>39294562.66193091</v>
+        <v>7789620.60144258</v>
       </c>
       <c r="G28">
-        <v>37316052540.16325</v>
+        <v>7368151352.762377</v>
       </c>
       <c r="H28">
-        <v>40.5</v>
+        <v>15.5</v>
       </c>
       <c r="I28">
-        <v>951.5</v>
+        <v>994.5</v>
       </c>
       <c r="J28">
-        <v>1.005280346820809</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>1.469665784969932</v>
@@ -1476,72 +1476,72 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2">
-        <v>44492.375</v>
+        <v>44493.375</v>
       </c>
       <c r="B29">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="C29">
-        <v>964</v>
+        <v>1030</v>
       </c>
       <c r="D29">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="E29">
-        <v>964</v>
+        <v>1025</v>
       </c>
       <c r="F29">
-        <v>7789620.60144258</v>
+        <v>15331098.59961071</v>
       </c>
       <c r="G29">
-        <v>7368151352.762377</v>
+        <v>15027767866.63699</v>
       </c>
       <c r="H29">
-        <v>15.5</v>
+        <v>43.5</v>
       </c>
       <c r="I29">
-        <v>994.5</v>
+        <v>980.5</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>1.044885007649159</v>
       </c>
       <c r="K29">
-        <v>1.469665784969932</v>
+        <v>1.535631744970014</v>
       </c>
       <c r="L29">
-        <v>1.661123690197995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2">
-        <v>44493.375</v>
+        <v>44494.375</v>
       </c>
       <c r="B30">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="C30">
         <v>1030</v>
       </c>
       <c r="D30">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="E30">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="F30">
-        <v>15331098.59961071</v>
+        <v>22350182.558695</v>
       </c>
       <c r="G30">
-        <v>15027767866.63699</v>
+        <v>21931033965.71673</v>
       </c>
       <c r="H30">
-        <v>43.5</v>
+        <v>34.5</v>
       </c>
       <c r="I30">
-        <v>980.5</v>
+        <v>1068.5</v>
       </c>
       <c r="J30">
-        <v>1.044885007649159</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1.535631744970014</v>
@@ -1552,31 +1552,31 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2">
-        <v>44494.375</v>
+        <v>44495.375</v>
       </c>
       <c r="B31">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="C31">
-        <v>1030</v>
+        <v>998</v>
       </c>
       <c r="D31">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="E31">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="F31">
-        <v>22350182.558695</v>
+        <v>12341671.01933129</v>
       </c>
       <c r="G31">
-        <v>21931033965.71673</v>
+        <v>12050131784.31585</v>
       </c>
       <c r="H31">
-        <v>34.5</v>
+        <v>16</v>
       </c>
       <c r="I31">
-        <v>1068.5</v>
+        <v>1032.5</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1590,31 +1590,31 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2">
-        <v>44495.375</v>
+        <v>44496.375</v>
       </c>
       <c r="B32">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="C32">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="D32">
-        <v>966</v>
+        <v>843</v>
       </c>
       <c r="E32">
-        <v>974</v>
+        <v>894</v>
       </c>
       <c r="F32">
-        <v>12341671.01933129</v>
+        <v>17663129.7353191</v>
       </c>
       <c r="G32">
-        <v>12050131784.31585</v>
+        <v>16093785851.88787</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>65.5</v>
       </c>
       <c r="I32">
-        <v>1032.5</v>
+        <v>989</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1628,31 +1628,31 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
-        <v>44496.375</v>
+        <v>44497.375</v>
       </c>
       <c r="B33">
-        <v>973</v>
+        <v>894</v>
       </c>
       <c r="C33">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="D33">
         <v>843</v>
       </c>
       <c r="E33">
-        <v>894</v>
+        <v>937</v>
       </c>
       <c r="F33">
-        <v>17663129.7353191</v>
+        <v>10369752.6564084</v>
       </c>
       <c r="G33">
-        <v>16093785851.88787</v>
+        <v>9294338323.189381</v>
       </c>
       <c r="H33">
-        <v>65.5</v>
+        <v>52.5</v>
       </c>
       <c r="I33">
-        <v>989</v>
+        <v>959.5</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1666,31 +1666,31 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
-        <v>44497.375</v>
+        <v>44498.375</v>
       </c>
       <c r="B34">
-        <v>894</v>
+        <v>937</v>
       </c>
       <c r="C34">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="D34">
-        <v>843</v>
+        <v>913</v>
       </c>
       <c r="E34">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="F34">
-        <v>10369752.6564084</v>
+        <v>12895158.71277813</v>
       </c>
       <c r="G34">
-        <v>9294338323.189381</v>
+        <v>11989212782.93282</v>
       </c>
       <c r="H34">
-        <v>52.5</v>
+        <v>23.5</v>
       </c>
       <c r="I34">
-        <v>959.5</v>
+        <v>989.5</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1704,37 +1704,37 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
-        <v>44498.375</v>
+        <v>44499.375</v>
       </c>
       <c r="B35">
-        <v>937</v>
+        <v>958</v>
       </c>
       <c r="C35">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="D35">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E35">
-        <v>957</v>
+        <v>1005</v>
       </c>
       <c r="F35">
-        <v>12895158.71277813</v>
+        <v>26932138.64358411</v>
       </c>
       <c r="G35">
-        <v>11989212782.93282</v>
+        <v>25891406152.07891</v>
       </c>
       <c r="H35">
-        <v>23.5</v>
+        <v>47.5</v>
       </c>
       <c r="I35">
-        <v>989.5</v>
+        <v>981.5</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>1.023442944472746</v>
       </c>
       <c r="K35">
-        <v>1.535631744970014</v>
+        <v>1.571631474697932</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -1742,34 +1742,34 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
-        <v>44499.375</v>
+        <v>44500.375</v>
       </c>
       <c r="B36">
-        <v>958</v>
+        <v>1005</v>
       </c>
       <c r="C36">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D36">
-        <v>915</v>
+        <v>932</v>
       </c>
       <c r="E36">
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="F36">
-        <v>26932138.64358411</v>
+        <v>24172135.35834814</v>
       </c>
       <c r="G36">
-        <v>25891406152.07891</v>
+        <v>23065506741.72459</v>
       </c>
       <c r="H36">
-        <v>47.5</v>
+        <v>36.5</v>
       </c>
       <c r="I36">
-        <v>981.5</v>
+        <v>1052.5</v>
       </c>
       <c r="J36">
-        <v>1.023442944472746</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>1.571631474697932</v>
@@ -1780,31 +1780,31 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
-        <v>44500.375</v>
+        <v>44501.375</v>
       </c>
       <c r="B37">
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="C37">
         <v>1005</v>
       </c>
       <c r="D37">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E37">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F37">
-        <v>24172135.35834814</v>
+        <v>14343051.21552503</v>
       </c>
       <c r="G37">
-        <v>23065506741.72459</v>
+        <v>13755851313.59522</v>
       </c>
       <c r="H37">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="I37">
-        <v>1052.5</v>
+        <v>1011.5</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1818,31 +1818,31 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>44501.375</v>
+        <v>44502.375</v>
       </c>
       <c r="B38">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="C38">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="D38">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="E38">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="F38">
-        <v>14343051.21552503</v>
+        <v>15947289.83237544</v>
       </c>
       <c r="G38">
-        <v>13755851313.59522</v>
+        <v>15217662834.41586</v>
       </c>
       <c r="H38">
-        <v>37</v>
+        <v>19.5</v>
       </c>
       <c r="I38">
-        <v>1011.5</v>
+        <v>1000</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -1856,31 +1856,31 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>44502.375</v>
+        <v>44503.375</v>
       </c>
       <c r="B39">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="C39">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D39">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="E39">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F39">
-        <v>15947289.83237544</v>
+        <v>11454300.55398266</v>
       </c>
       <c r="G39">
-        <v>15217662834.41586</v>
+        <v>10866239579.61653</v>
       </c>
       <c r="H39">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="I39">
-        <v>1000</v>
+        <v>992.5</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -1894,37 +1894,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>44503.375</v>
+        <v>44504.375</v>
       </c>
       <c r="B40">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="C40">
-        <v>973</v>
+        <v>1405</v>
       </c>
       <c r="D40">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="E40">
-        <v>962</v>
+        <v>1050</v>
       </c>
       <c r="F40">
-        <v>11454300.55398266</v>
+        <v>471046336.5162165</v>
       </c>
       <c r="G40">
-        <v>10866239579.61653</v>
+        <v>573106691516.2474</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I40">
-        <v>992.5</v>
+        <v>987</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>1.063329787234043</v>
       </c>
       <c r="K40">
-        <v>1.571631474697932</v>
+        <v>1.671162561600877</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -1932,34 +1932,34 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>44504.375</v>
+        <v>44505.375</v>
       </c>
       <c r="B41">
-        <v>962</v>
+        <v>1050</v>
       </c>
       <c r="C41">
-        <v>1405</v>
+        <v>1050</v>
       </c>
       <c r="D41">
-        <v>961</v>
+        <v>986</v>
       </c>
       <c r="E41">
-        <v>1050</v>
+        <v>1005</v>
       </c>
       <c r="F41">
-        <v>471046336.5162165</v>
+        <v>33327921.4090547</v>
       </c>
       <c r="G41">
-        <v>573106691516.2474</v>
+        <v>33462451432.80519</v>
       </c>
       <c r="H41">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="I41">
-        <v>987</v>
+        <v>1272</v>
       </c>
       <c r="J41">
-        <v>1.063329787234043</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>1.671162561600877</v>
@@ -1970,31 +1970,31 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>44505.375</v>
+        <v>44506.375</v>
       </c>
       <c r="B42">
-        <v>1050</v>
+        <v>1005</v>
       </c>
       <c r="C42">
-        <v>1050</v>
+        <v>1005</v>
       </c>
       <c r="D42">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="E42">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="F42">
-        <v>33327921.4090547</v>
+        <v>10955114.13864133</v>
       </c>
       <c r="G42">
-        <v>33462451432.80519</v>
+        <v>10771323059.02853</v>
       </c>
       <c r="H42">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="I42">
-        <v>1272</v>
+        <v>1037</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2008,31 +2008,31 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>44506.375</v>
+        <v>44507.375</v>
       </c>
       <c r="B43">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="C43">
         <v>1005</v>
       </c>
       <c r="D43">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="E43">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="F43">
-        <v>10955114.13864133</v>
+        <v>8265157.02338478</v>
       </c>
       <c r="G43">
-        <v>10771323059.02853</v>
+        <v>8224063504.800534</v>
       </c>
       <c r="H43">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="I43">
-        <v>1037</v>
+        <v>1008.5</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2046,31 +2046,31 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>44507.375</v>
+        <v>44508.375</v>
       </c>
       <c r="B44">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="C44">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="D44">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="E44">
         <v>996</v>
       </c>
       <c r="F44">
-        <v>8265157.02338478</v>
+        <v>10151592.35147146</v>
       </c>
       <c r="G44">
-        <v>8224063504.800534</v>
+        <v>9928543784.475191</v>
       </c>
       <c r="H44">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="I44">
-        <v>1008.5</v>
+        <v>1005.5</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2084,31 +2084,31 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>44508.375</v>
+        <v>44509.375</v>
       </c>
       <c r="B45">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C45">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D45">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="E45">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="F45">
-        <v>10151592.35147146</v>
+        <v>7019199.75535774</v>
       </c>
       <c r="G45">
-        <v>9928543784.475191</v>
+        <v>6879971707.499956</v>
       </c>
       <c r="H45">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="I45">
-        <v>1005.5</v>
+        <v>1011.5</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2122,110 +2122,110 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
-        <v>44509.375</v>
+        <v>44510.375</v>
       </c>
       <c r="B46">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="C46">
-        <v>996</v>
+        <v>1025</v>
       </c>
       <c r="D46">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E46">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="F46">
-        <v>7019199.75535774</v>
+        <v>15469582.10416981</v>
       </c>
       <c r="G46">
-        <v>6879971707.499956</v>
+        <v>15319764512.0137</v>
       </c>
       <c r="H46">
-        <v>12.5</v>
+        <v>27.5</v>
       </c>
       <c r="I46">
-        <v>1011.5</v>
+        <v>993.5</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0.9909443885254152</v>
       </c>
       <c r="K46">
-        <v>1.671162561600877</v>
+        <v>1.656029162732147</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.905561147458481</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
-        <v>44510.375</v>
+        <v>44511.375</v>
       </c>
       <c r="B47">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="C47">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="D47">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E47">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="F47">
-        <v>15469582.10416981</v>
+        <v>13105491.37234491</v>
       </c>
       <c r="G47">
-        <v>15319764512.0137</v>
+        <v>12975396691.50539</v>
       </c>
       <c r="H47">
-        <v>27.5</v>
+        <v>23.5</v>
       </c>
       <c r="I47">
-        <v>993.5</v>
+        <v>1013.5</v>
       </c>
       <c r="J47">
-        <v>0.9909443885254152</v>
+        <v>0.9911132215096202</v>
       </c>
       <c r="K47">
-        <v>1.656029162732147</v>
+        <v>1.641312398389337</v>
       </c>
       <c r="L47">
-        <v>0.905561147458481</v>
+        <v>1.7861914751695</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2">
-        <v>44511.375</v>
+        <v>44512.375</v>
       </c>
       <c r="B48">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="C48">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D48">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E48">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="F48">
-        <v>13105491.37234491</v>
+        <v>8320440.92476996</v>
       </c>
       <c r="G48">
-        <v>12975396691.50539</v>
+        <v>8169917829.332928</v>
       </c>
       <c r="H48">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
       <c r="I48">
-        <v>1013.5</v>
+        <v>1028.5</v>
       </c>
       <c r="J48">
-        <v>0.9911132215096202</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>1.641312398389337</v>
@@ -2236,72 +2236,72 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2">
-        <v>44512.375</v>
+        <v>44513.375</v>
       </c>
       <c r="B49">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="C49">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="D49">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="E49">
-        <v>987</v>
+        <v>1025</v>
       </c>
       <c r="F49">
-        <v>8320440.92476996</v>
+        <v>9160893.86860905</v>
       </c>
       <c r="G49">
-        <v>8169917829.332928</v>
+        <v>9114764050.496841</v>
       </c>
       <c r="H49">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="I49">
-        <v>1028.5</v>
+        <v>1004.5</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>1.019908163265306</v>
       </c>
       <c r="K49">
-        <v>1.641312398389337</v>
+        <v>1.673987913585844</v>
       </c>
       <c r="L49">
-        <v>1.7861914751695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2">
-        <v>44513.375</v>
+        <v>44514.375</v>
       </c>
       <c r="B50">
-        <v>987</v>
+        <v>1025</v>
       </c>
       <c r="C50">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="D50">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="E50">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="F50">
-        <v>9160893.86860905</v>
+        <v>9748514.88884146</v>
       </c>
       <c r="G50">
-        <v>9114764050.496841</v>
+        <v>9890630728.898582</v>
       </c>
       <c r="H50">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="I50">
-        <v>1004.5</v>
+        <v>1050</v>
       </c>
       <c r="J50">
-        <v>1.019908163265306</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>1.673987913585844</v>
@@ -2312,37 +2312,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2">
-        <v>44514.375</v>
+        <v>44515.375</v>
       </c>
       <c r="B51">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="C51">
-        <v>1045</v>
+        <v>1270</v>
       </c>
       <c r="D51">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="E51">
-        <v>1040</v>
+        <v>1085</v>
       </c>
       <c r="F51">
-        <v>9748514.88884146</v>
+        <v>124205631.1271212</v>
       </c>
       <c r="G51">
-        <v>9890630728.898582</v>
+        <v>142159037136.0524</v>
       </c>
       <c r="H51">
-        <v>25.5</v>
+        <v>127.5</v>
       </c>
       <c r="I51">
-        <v>1050</v>
+        <v>1070.5</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>1.013045072396077</v>
       </c>
       <c r="K51">
-        <v>1.673987913585844</v>
+        <v>1.695825207108728</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2350,37 +2350,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2">
-        <v>44515.375</v>
+        <v>44516.375</v>
       </c>
       <c r="B52">
-        <v>1045</v>
+        <v>1085</v>
       </c>
       <c r="C52">
-        <v>1270</v>
+        <v>1610</v>
       </c>
       <c r="D52">
-        <v>1015</v>
+        <v>1060</v>
       </c>
       <c r="E52">
-        <v>1085</v>
+        <v>1410</v>
       </c>
       <c r="F52">
-        <v>124205631.1271212</v>
+        <v>471665131.0727315</v>
       </c>
       <c r="G52">
-        <v>142159037136.0524</v>
+        <v>641826458044.5508</v>
       </c>
       <c r="H52">
-        <v>127.5</v>
+        <v>275</v>
       </c>
       <c r="I52">
-        <v>1070.5</v>
+        <v>1212.5</v>
       </c>
       <c r="J52">
-        <v>1.013045072396077</v>
+        <v>1.162386597938144</v>
       </c>
       <c r="K52">
-        <v>1.695825207108728</v>
+        <v>1.971204493188864</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2388,34 +2388,34 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2">
-        <v>44516.375</v>
+        <v>44517.375</v>
       </c>
       <c r="B53">
-        <v>1085</v>
+        <v>1405</v>
       </c>
       <c r="C53">
-        <v>1610</v>
+        <v>1475</v>
       </c>
       <c r="D53">
-        <v>1060</v>
+        <v>1190</v>
       </c>
       <c r="E53">
-        <v>1410</v>
+        <v>1350</v>
       </c>
       <c r="F53">
-        <v>471665131.0727315</v>
+        <v>115524467.143611</v>
       </c>
       <c r="G53">
-        <v>641826458044.5508</v>
+        <v>150855159952.8419</v>
       </c>
       <c r="H53">
-        <v>275</v>
+        <v>142.5</v>
       </c>
       <c r="I53">
-        <v>1212.5</v>
+        <v>1680</v>
       </c>
       <c r="J53">
-        <v>1.162386597938144</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>1.971204493188864</v>
@@ -2426,31 +2426,31 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2">
-        <v>44517.375</v>
+        <v>44518.375</v>
       </c>
       <c r="B54">
-        <v>1405</v>
+        <v>1355</v>
       </c>
       <c r="C54">
-        <v>1475</v>
+        <v>1380</v>
       </c>
       <c r="D54">
-        <v>1190</v>
+        <v>1070</v>
       </c>
       <c r="E54">
-        <v>1350</v>
+        <v>1115</v>
       </c>
       <c r="F54">
-        <v>115524467.143611</v>
+        <v>49033986.89709716</v>
       </c>
       <c r="G54">
-        <v>150855159952.8419</v>
+        <v>60426109451.58766</v>
       </c>
       <c r="H54">
-        <v>142.5</v>
+        <v>155</v>
       </c>
       <c r="I54">
-        <v>1680</v>
+        <v>1497.5</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2464,148 +2464,148 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2">
-        <v>44518.375</v>
+        <v>44519.375</v>
       </c>
       <c r="B55">
-        <v>1355</v>
+        <v>1115</v>
       </c>
       <c r="C55">
-        <v>1380</v>
+        <v>1340</v>
       </c>
       <c r="D55">
-        <v>1070</v>
+        <v>1110</v>
       </c>
       <c r="E55">
-        <v>1115</v>
+        <v>1255</v>
       </c>
       <c r="F55">
-        <v>49033986.89709716</v>
+        <v>56110488.1134255</v>
       </c>
       <c r="G55">
-        <v>60426109451.58766</v>
+        <v>69611107556.21954</v>
       </c>
       <c r="H55">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="I55">
-        <v>1497.5</v>
+        <v>1270</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0.9876889763779528</v>
       </c>
       <c r="K55">
-        <v>1.971204493188864</v>
+        <v>1.94693694810933</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1.231102362204713</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2">
-        <v>44519.375</v>
+        <v>44520.375</v>
       </c>
       <c r="B56">
-        <v>1115</v>
+        <v>1255</v>
       </c>
       <c r="C56">
-        <v>1340</v>
+        <v>1375</v>
       </c>
       <c r="D56">
-        <v>1110</v>
+        <v>1240</v>
       </c>
       <c r="E56">
-        <v>1255</v>
+        <v>1315</v>
       </c>
       <c r="F56">
-        <v>56110488.1134255</v>
+        <v>31903997.20844074</v>
       </c>
       <c r="G56">
-        <v>69611107556.21954</v>
+        <v>41961608183.63889</v>
       </c>
       <c r="H56">
-        <v>115</v>
+        <v>67.5</v>
       </c>
       <c r="I56">
-        <v>1270</v>
+        <v>1370</v>
       </c>
       <c r="J56">
-        <v>0.9876889763779528</v>
+        <v>0.9593540145985402</v>
       </c>
       <c r="K56">
-        <v>1.94693694810933</v>
+        <v>1.867801777338916</v>
       </c>
       <c r="L56">
-        <v>1.231102362204713</v>
+        <v>5.245661533708812</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
-        <v>44520.375</v>
+        <v>44521.375</v>
       </c>
       <c r="B57">
-        <v>1255</v>
+        <v>1315</v>
       </c>
       <c r="C57">
-        <v>1375</v>
+        <v>1600</v>
       </c>
       <c r="D57">
-        <v>1240</v>
+        <v>1305</v>
       </c>
       <c r="E57">
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="F57">
-        <v>31903997.20844074</v>
+        <v>130621375.5370625</v>
       </c>
       <c r="G57">
-        <v>41961608183.63889</v>
+        <v>193003602307.0819</v>
       </c>
       <c r="H57">
-        <v>67.5</v>
+        <v>147.5</v>
       </c>
       <c r="I57">
-        <v>1370</v>
+        <v>1382.5</v>
       </c>
       <c r="J57">
-        <v>0.9593540145985402</v>
+        <v>1.023008137432188</v>
       </c>
       <c r="K57">
-        <v>1.867801777338916</v>
+        <v>1.910776417328015</v>
       </c>
       <c r="L57">
-        <v>5.245661533708812</v>
+        <v>3.06554069198031</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2">
-        <v>44521.375</v>
+        <v>44522.375</v>
       </c>
       <c r="B58">
-        <v>1315</v>
+        <v>1415</v>
       </c>
       <c r="C58">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="D58">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="E58">
-        <v>1415</v>
+        <v>1375</v>
       </c>
       <c r="F58">
-        <v>130621375.5370625</v>
+        <v>22536941.16043941</v>
       </c>
       <c r="G58">
-        <v>193003602307.0819</v>
+        <v>30320846203.73705</v>
       </c>
       <c r="H58">
-        <v>147.5</v>
+        <v>75</v>
       </c>
       <c r="I58">
-        <v>1382.5</v>
+        <v>1562.5</v>
       </c>
       <c r="J58">
-        <v>1.023008137432188</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>1.910776417328015</v>
@@ -2616,75 +2616,75 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2">
-        <v>44522.375</v>
+        <v>44523.375</v>
       </c>
       <c r="B59">
-        <v>1415</v>
+        <v>1375</v>
       </c>
       <c r="C59">
-        <v>1440</v>
+        <v>1575</v>
       </c>
       <c r="D59">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="E59">
-        <v>1375</v>
+        <v>1565</v>
       </c>
       <c r="F59">
-        <v>22536941.16043941</v>
+        <v>58973821.99284354</v>
       </c>
       <c r="G59">
-        <v>30320846203.73705</v>
+        <v>87686170278.61148</v>
       </c>
       <c r="H59">
-        <v>75</v>
+        <v>122.5</v>
       </c>
       <c r="I59">
-        <v>1562.5</v>
+        <v>1450</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>1.078810344827586</v>
       </c>
       <c r="K59">
-        <v>1.910776417328015</v>
+        <v>2.061365365666056</v>
       </c>
       <c r="L59">
-        <v>3.06554069198031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2">
-        <v>44523.375</v>
+        <v>44524.375</v>
       </c>
       <c r="B60">
-        <v>1375</v>
+        <v>1565</v>
       </c>
       <c r="C60">
-        <v>1575</v>
+        <v>1930</v>
       </c>
       <c r="D60">
-        <v>1330</v>
+        <v>1535</v>
       </c>
       <c r="E60">
-        <v>1565</v>
+        <v>1895</v>
       </c>
       <c r="F60">
-        <v>58973821.99284354</v>
+        <v>94146561.92530698</v>
       </c>
       <c r="G60">
-        <v>87686170278.61148</v>
+        <v>165894240939.3105</v>
       </c>
       <c r="H60">
-        <v>122.5</v>
+        <v>197.5</v>
       </c>
       <c r="I60">
-        <v>1450</v>
+        <v>1687.5</v>
       </c>
       <c r="J60">
-        <v>1.078810344827586</v>
+        <v>1.122462962962963</v>
       </c>
       <c r="K60">
-        <v>2.061365365666056</v>
+        <v>2.313806276094752</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -2692,37 +2692,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2">
-        <v>44524.375</v>
+        <v>44525.375</v>
       </c>
       <c r="B61">
-        <v>1565</v>
+        <v>1895</v>
       </c>
       <c r="C61">
-        <v>1930</v>
+        <v>2425</v>
       </c>
       <c r="D61">
-        <v>1535</v>
+        <v>1820</v>
       </c>
       <c r="E61">
-        <v>1815</v>
+        <v>2185</v>
       </c>
       <c r="F61">
-        <v>78321376.72703218</v>
+        <v>104675648.7244646</v>
       </c>
       <c r="G61">
-        <v>137167504381.0769</v>
+        <v>228247226184.542</v>
       </c>
       <c r="H61">
-        <v>197.5</v>
+        <v>302.5</v>
       </c>
       <c r="I61">
-        <v>1687.5</v>
+        <v>2092.5</v>
       </c>
       <c r="J61">
-        <v>1.075055555555556</v>
+        <v>1.043705495818399</v>
       </c>
       <c r="K61">
-        <v>2.216082288389102</v>
+        <v>2.414932326619197</v>
       </c>
       <c r="L61">
         <v>0</v>
